--- a/form/WIR-Teil.xlsx
+++ b/form/WIR-Teil.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -117,17 +117,84 @@
   </si>
   <si>
     <t>Elektrolyt-Kondensatoren</t>
+  </si>
+  <si>
+    <t>Hardwareentwicklung</t>
+  </si>
+  <si>
+    <t>Optimierungsarbeiten</t>
+  </si>
+  <si>
+    <t>Messungen</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Gesamtarbeitszeit</t>
+  </si>
+  <si>
+    <t>Stundenlohn (Techniker)</t>
+  </si>
+  <si>
+    <t>Entwicklungskosten</t>
+  </si>
+  <si>
+    <t>Bürofläche für 2 Personen</t>
+  </si>
+  <si>
+    <t>monatliche Miete</t>
+  </si>
+  <si>
+    <t>Dauer des Mietverhältnisses</t>
+  </si>
+  <si>
+    <t>Gesamtmietkosten</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
+    <t>Heizung</t>
+  </si>
+  <si>
+    <t>Strom</t>
+  </si>
+  <si>
+    <t>Internet &amp; Telefon</t>
+  </si>
+  <si>
+    <t>Gesamtkosten</t>
+  </si>
+  <si>
+    <t>Betriebskosten</t>
+  </si>
+  <si>
+    <t>Gesamtentwicklungskosten</t>
+  </si>
+  <si>
+    <t>Gesamtbetriebskosten</t>
+  </si>
+  <si>
+    <t>Fixkosten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1];[Red]\-#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="165" formatCode="0.000&quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="0&quot; h&quot;"/>
+    <numFmt numFmtId="167" formatCode="0&quot; m²&quot;"/>
+    <numFmt numFmtId="169" formatCode="0&quot; Monate&quot;"/>
+    <numFmt numFmtId="171" formatCode="0&quot; € / Monat&quot;"/>
+    <numFmt numFmtId="172" formatCode="0&quot; € / m²&quot;"/>
+    <numFmt numFmtId="175" formatCode="#&quot;.&quot;##0.00&quot; €&quot;"/>
+    <numFmt numFmtId="176" formatCode="##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +210,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -212,55 +287,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,10 +414,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,10 +421,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -290,9 +428,125 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,497 +862,830 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="E1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="6" width="10.77734375" customWidth="1"/>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.68</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>2+2</f>
         <v>4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="27">
         <v>0.10299999999999999</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <f>D2*$E$2</f>
         <v>0.41199999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
+      <c r="G2" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="42">
+        <v>230</v>
+      </c>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3">
+      <c r="C3" s="25"/>
+      <c r="D3" s="2">
         <f>1+1+1+1</f>
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5">
+      <c r="E3" s="27"/>
+      <c r="F3" s="3">
         <f t="shared" ref="F3:F16" si="0">D3*$E$2</f>
         <v>0.41199999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2">
+      <c r="G3" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="42">
+        <v>80</v>
+      </c>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3">
+      <c r="C4" s="25"/>
+      <c r="D4" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5">
+      <c r="E4" s="27"/>
+      <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
+      <c r="G4" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="42">
+        <v>60</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3">
+      <c r="C5" s="25"/>
+      <c r="D5" s="2">
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5">
+      <c r="E5" s="27"/>
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>0.61799999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2">
+      <c r="G5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="43">
+        <v>70</v>
+      </c>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="1">
         <v>330</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3">
+      <c r="C6" s="25"/>
+      <c r="D6" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
+      <c r="E6" s="27"/>
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2">
+      <c r="G6" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="44">
+        <f>SUM(K2:M5)</f>
+        <v>440</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="1">
         <v>560</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3">
+      <c r="C7" s="25"/>
+      <c r="D7" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
+      <c r="E7" s="27"/>
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="G7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="45">
+        <v>100</v>
+      </c>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3">
+      <c r="C8" s="25"/>
+      <c r="D8" s="2">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5">
+      <c r="E8" s="27"/>
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="G8" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="52">
+        <f>K6*K7</f>
+        <v>44000</v>
+      </c>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3">
+      <c r="C9" s="25"/>
+      <c r="D9" s="2">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
+      <c r="E9" s="27"/>
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3">
+      <c r="C10" s="25"/>
+      <c r="D10" s="2">
         <f>3+2+1+1</f>
         <v>7</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
+      <c r="E10" s="27"/>
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3">
+      <c r="C11" s="25"/>
+      <c r="D11" s="2">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5">
+      <c r="E11" s="27"/>
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="G11" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3">
+      <c r="C12" s="25"/>
+      <c r="D12" s="2">
         <f>2+6</f>
         <v>8</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5">
+      <c r="E12" s="27"/>
+      <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>0.82399999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="G12" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="47">
+        <v>20</v>
+      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3">
+      <c r="C13" s="25"/>
+      <c r="D13" s="2">
         <f>2+2</f>
         <v>4</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
+      <c r="E13" s="27"/>
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>0.41199999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="G13" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="49">
+        <v>5</v>
+      </c>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3">
+      <c r="C14" s="25"/>
+      <c r="D14" s="2">
         <f>3+4+3+3+4+2</f>
         <v>19</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5">
+      <c r="E14" s="27"/>
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>1.9569999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="G14" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="50">
+        <v>9</v>
+      </c>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3">
+      <c r="C15" s="25"/>
+      <c r="D15" s="2">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5">
+      <c r="E15" s="27"/>
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+      <c r="G15" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="55">
+        <f>K14*K13*K12</f>
+        <v>900</v>
+      </c>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="8">
+      <c r="C16" s="26"/>
+      <c r="D16" s="5">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="5">
+      <c r="E16" s="28"/>
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="8">
         <f>D17*$E$17</f>
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="G17" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="48">
+        <v>25</v>
+      </c>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3">
+      <c r="C18" s="25"/>
+      <c r="D18" s="2">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16">
+      <c r="E18" s="30"/>
+      <c r="F18" s="9">
         <f t="shared" ref="F18:F23" si="1">D18*$E$17</f>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
+      <c r="G18" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="48">
+        <v>85</v>
+      </c>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3">
+      <c r="C19" s="25"/>
+      <c r="D19" s="2">
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16">
+      <c r="E19" s="30"/>
+      <c r="F19" s="9">
         <f t="shared" si="1"/>
         <v>0.84000000000000008</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
+      <c r="G19" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="48">
+        <v>50</v>
+      </c>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25"/>
+      <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3">
+      <c r="C20" s="25"/>
+      <c r="D20" s="2">
         <f>1+1+1+1+1+5</f>
         <v>10</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16">
+      <c r="E20" s="30"/>
+      <c r="F20" s="9">
         <f t="shared" si="1"/>
         <v>1.4000000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="G20" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="51">
+        <v>40</v>
+      </c>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="3">
+      <c r="C21" s="25"/>
+      <c r="D21" s="2">
         <f>1+1+1+1</f>
         <v>4</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16">
+      <c r="E21" s="30"/>
+      <c r="F21" s="9">
         <f t="shared" si="1"/>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
+      <c r="G21" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="52">
+        <f>(K17+K18+K19+K20)*K14</f>
+        <v>1800</v>
+      </c>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3">
+      <c r="C22" s="25"/>
+      <c r="D22" s="2">
         <f>3+3</f>
         <v>6</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16">
+      <c r="E22" s="30"/>
+      <c r="F22" s="9">
         <f t="shared" si="1"/>
         <v>0.84000000000000008</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="8">
+      <c r="C23" s="26"/>
+      <c r="D23" s="5">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18">
+      <c r="E23" s="31"/>
+      <c r="F23" s="10">
         <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="G23" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="52">
+        <f>K15+K21</f>
+        <v>2700</v>
+      </c>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="12">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="13">
         <v>0.15</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="53">
         <f>D24*E24</f>
         <v>0.15</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25" t="s">
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="26">
+      <c r="C25" s="25"/>
+      <c r="D25" s="15">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="16">
         <v>0.09</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="54">
         <f t="shared" ref="F25:F28" si="2">D25*E25</f>
         <v>0.18</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25" t="s">
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="26">
+      <c r="C26" s="25"/>
+      <c r="D26" s="15">
         <f>7+3+3+4</f>
         <v>17</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="16">
         <v>0.08</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="54">
         <f t="shared" si="2"/>
         <v>1.36</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25" t="s">
+      <c r="G26" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="41"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="26">
+      <c r="C27" s="25"/>
+      <c r="D27" s="15">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="16">
         <v>0.09</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="54">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30" t="s">
+      <c r="G27" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="60">
+        <f>K8</f>
+        <v>44000</v>
+      </c>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="23"/>
+      <c r="B28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="31">
+      <c r="C28" s="26"/>
+      <c r="D28" s="18">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="19">
         <v>1.6</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="59">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
+      <c r="G28" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="61">
+        <f>K23</f>
+        <v>2700</v>
+      </c>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="52">
+        <f>K27+K28</f>
+        <v>46700</v>
+      </c>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="55">
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="A2:A16"/>

--- a/form/WIR-Teil.xlsx
+++ b/form/WIR-Teil.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -188,11 +188,11 @@
     <numFmt numFmtId="165" formatCode="0.000&quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="0&quot; h&quot;"/>
     <numFmt numFmtId="167" formatCode="0&quot; m²&quot;"/>
-    <numFmt numFmtId="169" formatCode="0&quot; Monate&quot;"/>
-    <numFmt numFmtId="171" formatCode="0&quot; € / Monat&quot;"/>
-    <numFmt numFmtId="172" formatCode="0&quot; € / m²&quot;"/>
-    <numFmt numFmtId="175" formatCode="#&quot;.&quot;##0.00&quot; €&quot;"/>
-    <numFmt numFmtId="176" formatCode="##0.00&quot; €&quot;"/>
+    <numFmt numFmtId="168" formatCode="0&quot; Monate&quot;"/>
+    <numFmt numFmtId="169" formatCode="0&quot; € / Monat&quot;"/>
+    <numFmt numFmtId="170" formatCode="0&quot; € / m²&quot;"/>
+    <numFmt numFmtId="171" formatCode="#&quot;.&quot;##0.00&quot; €&quot;"/>
+    <numFmt numFmtId="172" formatCode="##0.00&quot; €&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -227,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -291,15 +291,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -364,23 +355,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -389,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -431,6 +413,87 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -464,90 +527,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -864,18 +855,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="E1" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -894,602 +885,602 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="52" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>0.68</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2">
         <f>2+2</f>
         <v>4</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="54">
         <v>0.10299999999999999</v>
       </c>
       <c r="F2" s="3">
         <f>D2*$E$2</f>
         <v>0.41199999999999998</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="42">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="38">
         <v>230</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="2">
         <f>1+1+1+1</f>
         <v>4</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F16" si="0">D3*$E$2</f>
         <v>0.41199999999999998</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="42">
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="38">
         <v>80</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="52"/>
       <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="42">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="38">
         <v>60</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="52"/>
       <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="2">
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>0.61799999999999999</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="43">
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="42">
         <v>70</v>
       </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="52"/>
       <c r="B6" s="1">
         <v>330</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="44">
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="43">
         <f>SUM(K2:M5)</f>
         <v>440</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="52"/>
       <c r="B7" s="1">
         <v>560</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E7" s="27"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="45">
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="44">
         <v>100</v>
       </c>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="52"/>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="2">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="52">
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="24">
         <f>K6*K7</f>
         <v>44000</v>
       </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="52"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="2">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="E9" s="27"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="2">
         <f>3+2+1+1</f>
         <v>7</v>
       </c>
-      <c r="E10" s="27"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="52"/>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="2">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="52"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="2">
         <f>2+6</f>
         <v>8</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="3">
         <f t="shared" si="0"/>
         <v>0.82399999999999995</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="47">
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="39">
         <v>20</v>
       </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="52"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="2">
         <f>2+2</f>
         <v>4</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>0.41199999999999998</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="49">
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="40">
         <v>5</v>
       </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="52"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="2">
         <f>3+4+3+3+4+2</f>
         <v>19</v>
       </c>
-      <c r="E14" s="27"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>1.9569999999999999</v>
       </c>
-      <c r="G14" s="38" t="s">
+      <c r="G14" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="50">
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="36">
         <v>9</v>
       </c>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="2">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="55">
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="37">
         <f>K14*K13*K12</f>
         <v>900</v>
       </c>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="53"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="5">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="51" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="51" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="56">
         <v>0.14000000000000001</v>
       </c>
       <c r="F17" s="8">
         <f>D17*$E$17</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="48">
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="35">
         <v>25</v>
       </c>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="52"/>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="2">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="9">
         <f t="shared" ref="F18:F23" si="1">D18*$E$17</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G18" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="48">
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="35">
         <v>85</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="52"/>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="2">
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="E19" s="30"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="9">
         <f t="shared" si="1"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="48">
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="35">
         <v>50</v>
       </c>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="2">
         <f>1+1+1+1+1+5</f>
         <v>10</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="9">
         <f t="shared" si="1"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="G20" s="38" t="s">
+      <c r="G20" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="51">
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="33">
         <v>40</v>
       </c>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="52"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="25"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="2">
         <f>1+1+1+1</f>
         <v>4</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="9">
         <f t="shared" si="1"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="52">
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="24">
         <f>(K17+K18+K19+K20)*K14</f>
         <v>1800</v>
       </c>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="52"/>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="2">
         <f>3+3</f>
         <v>6</v>
       </c>
-      <c r="E22" s="30"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="9">
         <f t="shared" si="1"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="53"/>
       <c r="B23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="26"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="5">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="10">
         <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="52">
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="24">
         <f>K15+K21</f>
         <v>2700</v>
       </c>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="51" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="12">
@@ -1499,24 +1490,24 @@
       <c r="E24" s="13">
         <v>0.15</v>
       </c>
-      <c r="F24" s="53">
+      <c r="F24" s="62">
         <f>D24*E24</f>
         <v>0.15</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="49"/>
       <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="15">
         <f>1+1</f>
         <v>2</v>
@@ -1524,24 +1515,24 @@
       <c r="E25" s="16">
         <v>0.09</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="63">
         <f t="shared" ref="F25:F28" si="2">D25*E25</f>
         <v>0.18</v>
       </c>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="49"/>
       <c r="B26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="15">
         <f>7+3+3+4</f>
         <v>17</v>
@@ -1549,26 +1540,26 @@
       <c r="E26" s="16">
         <v>0.08</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="63">
         <f t="shared" si="2"/>
         <v>1.36</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="41"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="49"/>
       <c r="B27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="15">
         <f>1+1</f>
         <v>2</v>
@@ -1576,29 +1567,29 @@
       <c r="E27" s="16">
         <v>0.09</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="63">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
-      <c r="G27" s="34" t="s">
+      <c r="G27" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="60">
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="29">
         <f>K8</f>
         <v>44000</v>
       </c>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="50"/>
       <c r="B28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="18">
         <f>1+1</f>
         <v>2</v>
@@ -1606,82 +1597,39 @@
       <c r="E28" s="19">
         <v>1.6</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="64">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="61">
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31">
         <f>K23</f>
         <v>2700</v>
       </c>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="37" t="s">
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="52">
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24">
         <f>K27+K28</f>
         <v>46700</v>
       </c>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:J3"/>
@@ -1694,6 +1642,49 @@
     <mergeCell ref="C17:C23"/>
     <mergeCell ref="A17:A23"/>
     <mergeCell ref="E17:E23"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:M28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/form/WIR-Teil.xlsx
+++ b/form/WIR-Teil.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>Bezeichnung</t>
   </si>
@@ -177,6 +177,108 @@
   </si>
   <si>
     <t>Fixkosten</t>
+  </si>
+  <si>
+    <t>Dioden</t>
+  </si>
+  <si>
+    <t>1N4007</t>
+  </si>
+  <si>
+    <t>Stiftleiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Pin </t>
+  </si>
+  <si>
+    <t>3Pin</t>
+  </si>
+  <si>
+    <t>Schraubklemme</t>
+  </si>
+  <si>
+    <t>2Polig</t>
+  </si>
+  <si>
+    <t>Verstärkerbaustein</t>
+  </si>
+  <si>
+    <t>TDA2030</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>OPV</t>
+  </si>
+  <si>
+    <t>TL082</t>
+  </si>
+  <si>
+    <t>Klinken-Buchse</t>
+  </si>
+  <si>
+    <t>3,5mm Stereo</t>
+  </si>
+  <si>
+    <t>Pfostenstecker</t>
+  </si>
+  <si>
+    <t>5x2 Pins</t>
+  </si>
+  <si>
+    <t>Stereo-Potentiometer</t>
+  </si>
+  <si>
+    <t>Spannungsregel IC</t>
+  </si>
+  <si>
+    <t>LM317</t>
+  </si>
+  <si>
+    <t>Buchsenleiste</t>
+  </si>
+  <si>
+    <t>32pol.</t>
+  </si>
+  <si>
+    <t>3mm-LED</t>
+  </si>
+  <si>
+    <t>Rot</t>
+  </si>
+  <si>
+    <t>Kurzhubtaster</t>
+  </si>
+  <si>
+    <t>6x6mm</t>
+  </si>
+  <si>
+    <t>3k9</t>
+  </si>
+  <si>
+    <t>10Pin</t>
+  </si>
+  <si>
+    <t>Bluetooth Modul</t>
+  </si>
+  <si>
+    <t>XS-3868</t>
+  </si>
+  <si>
+    <t>Ebay</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>BD244C</t>
+  </si>
+  <si>
+    <t>BD243C</t>
   </si>
 </sst>
 </file>
@@ -227,7 +329,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -354,24 +456,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,126 +508,135 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -853,20 +951,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -885,31 +983,31 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>0.68</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2">
         <f>2+2</f>
         <v>4</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="35">
         <v>0.10299999999999999</v>
       </c>
       <c r="F2" s="3">
@@ -922,26 +1020,26 @@
       <c r="H2" s="28"/>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="38">
+      <c r="K2" s="44">
         <v>230</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="2">
-        <f>1+1+1+1</f>
-        <v>4</v>
-      </c>
-      <c r="E3" s="54"/>
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="35"/>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F16" si="0">D3*$E$2</f>
-        <v>0.41199999999999998</v>
+        <f t="shared" ref="F3:F18" si="0">D3*$E$2</f>
+        <v>0.20599999999999999</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>33</v>
@@ -949,23 +1047,23 @@
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="38">
-        <v>80</v>
-      </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
+      <c r="K3" s="44">
+        <v>85</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
       <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
@@ -976,50 +1074,50 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="38">
-        <v>60</v>
-      </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52"/>
+      <c r="K4" s="44">
+        <v>67</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
       <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2">
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>0.61799999999999999</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="42">
-        <v>70</v>
-      </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="45">
+        <v>86</v>
+      </c>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
       <c r="B6" s="1">
         <v>330</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
@@ -1030,536 +1128,517 @@
       <c r="H6" s="41"/>
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="43">
+      <c r="K6" s="46">
         <f>SUM(K2:M5)</f>
-        <v>440</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52"/>
+        <v>468</v>
+      </c>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
       <c r="B7" s="1">
         <v>560</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="2">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="44">
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="47">
         <v>100</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="52"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="1">
+        <v>820</v>
+      </c>
+      <c r="C8" s="33"/>
       <c r="D8" s="2">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24">
-        <f>K6*K7</f>
-        <v>44000</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
       <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="52"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="33"/>
       <c r="D9" s="2">
-        <f>1+1</f>
+        <f>2</f>
         <v>2</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
+      <c r="G9" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="49">
+        <f>K6*K7</f>
+        <v>46800</v>
+      </c>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="52"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="33"/>
       <c r="D10" s="2">
-        <f>3+2+1+1</f>
-        <v>7</v>
-      </c>
-      <c r="E10" s="54"/>
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="35"/>
       <c r="F10" s="3">
         <f t="shared" si="0"/>
-        <v>0.72099999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="52"/>
+        <v>77</v>
+      </c>
+      <c r="C11" s="33"/>
       <c r="D11" s="2">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="3">
+      <c r="E11" s="35"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="2">
+        <f>2+3+2</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="2">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="35"/>
+      <c r="F13" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G13" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="27"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="1" t="s">
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="2">
-        <f>2+6</f>
+      <c r="C14" s="33"/>
+      <c r="D14" s="2">
+        <f>2+6+6+2</f>
+        <v>16</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="53">
+        <v>20</v>
+      </c>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="2">
+        <f>5+2</f>
+        <v>7</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="54">
+        <v>5</v>
+      </c>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="2">
+        <f>6+2</f>
         <v>8</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="3">
+      <c r="E16" s="35"/>
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>0.82399999999999995</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="39">
-        <v>20</v>
-      </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="2">
-        <f>2+2</f>
-        <v>4</v>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="40">
-        <v>5</v>
-      </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-    </row>
-    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52"/>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="2">
-        <f>3+4+3+3+4+2</f>
-        <v>19</v>
-      </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>1.9569999999999999</v>
-      </c>
-      <c r="G14" s="32" t="s">
+      <c r="G16" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="36">
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="55">
         <v>9</v>
       </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="1" t="s">
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="2">
+      <c r="C17" s="33"/>
+      <c r="D17" s="2">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="3">
+      <c r="E17" s="35"/>
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G17" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="37">
-        <f>K14*K13*K12</f>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="56">
+        <f>K16*K15*K14</f>
         <v>900</v>
       </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="4" t="s">
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="5">
+      <c r="C18" s="34"/>
+      <c r="D18" s="5">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="3">
+      <c r="E18" s="36"/>
+      <c r="F18" s="3">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="56">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F17" s="8">
-        <f>D17*$E$17</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="35">
-        <v>25</v>
-      </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="2">
-        <f>4</f>
-        <v>4</v>
-      </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="9">
-        <f t="shared" ref="F18:F23" si="1">D18*$E$17</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>43</v>
-      </c>
+      <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
-      <c r="K18" s="35">
-        <v>85</v>
-      </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="2">
-        <f>6</f>
-        <v>6</v>
-      </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="9">
-        <f t="shared" si="1"/>
-        <v>0.84000000000000008</v>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F19" s="8">
+        <f>D19*$E$19</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="35">
-        <v>50</v>
-      </c>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="52"/>
+      <c r="K19" s="57">
+        <v>25</v>
+      </c>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
       <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="52"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="33"/>
       <c r="D20" s="2">
-        <f>1+1+1+1+1+5</f>
-        <v>10</v>
-      </c>
-      <c r="E20" s="57"/>
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="38"/>
       <c r="F20" s="9">
-        <f t="shared" si="1"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33">
-        <v>40</v>
-      </c>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
+        <f t="shared" ref="F20:F25" si="1">D20*$E$19</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="57">
+        <v>85</v>
+      </c>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
       <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="52"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="33"/>
       <c r="D21" s="2">
-        <f>1+1+1+1</f>
-        <v>4</v>
-      </c>
-      <c r="E21" s="57"/>
+        <f>6</f>
+        <v>6</v>
+      </c>
+      <c r="E21" s="38"/>
       <c r="F21" s="9">
         <f t="shared" si="1"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G21" s="23" t="s">
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="57">
+        <v>50</v>
+      </c>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33"/>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="2">
+        <f>4+1+5+5</f>
+        <v>15</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="58">
+        <v>40</v>
+      </c>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="2">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G23" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24">
-        <f>(K17+K18+K19+K20)*K14</f>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="49">
+        <f>(K19+K20+K21+K22)*K16</f>
         <v>1800</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="52"/>
-      <c r="B22" s="1" t="s">
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33"/>
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="2">
+      <c r="C24" s="33"/>
+      <c r="D24" s="2">
         <f>3+3</f>
         <v>6</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="9">
+      <c r="E24" s="38"/>
+      <c r="F24" s="9">
         <f t="shared" si="1"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="4" t="s">
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="5">
+      <c r="C25" s="34"/>
+      <c r="D25" s="5">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="10">
+      <c r="E25" s="39"/>
+      <c r="F25" s="10">
         <f t="shared" si="1"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G25" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24">
-        <f>K15+K21</f>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="49">
+        <f>K17+K23</f>
         <v>2700</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C26" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D26" s="12">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E26" s="13">
         <v>0.15</v>
       </c>
-      <c r="F24" s="62">
-        <f>D24*E24</f>
+      <c r="F26" s="23">
+        <f>D26*E26</f>
         <v>0.15</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="14" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
+      <c r="B27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="15">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="F25" s="63">
-        <f t="shared" ref="F25:F28" si="2">D25*E25</f>
-        <v>0.18</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="15">
-        <f>7+3+3+4</f>
-        <v>17</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0.08</v>
-      </c>
-      <c r="F26" s="63">
-        <f t="shared" si="2"/>
-        <v>1.36</v>
-      </c>
-      <c r="G26" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="27"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="15">
         <f>1+1</f>
         <v>2</v>
@@ -1567,124 +1646,409 @@
       <c r="E27" s="16">
         <v>0.09</v>
       </c>
-      <c r="F27" s="63">
+      <c r="F27" s="24">
+        <f t="shared" ref="F27:F32" si="2">D27*E27</f>
+        <v>0.18</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="15">
+        <f>8+4+11</f>
+        <v>23</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.08</v>
+      </c>
+      <c r="F28" s="24">
+        <f t="shared" si="2"/>
+        <v>1.84</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
+      <c r="B29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="15">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="F29" s="24">
         <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G29" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29">
-        <f>K8</f>
-        <v>44000</v>
-      </c>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="50"/>
-      <c r="B28" s="17" t="s">
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="60">
+        <f>K9</f>
+        <v>46800</v>
+      </c>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
+      <c r="B30" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="18">
+      <c r="C30" s="34"/>
+      <c r="D30" s="18">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E30" s="19">
         <v>1.6</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F30" s="25">
         <f t="shared" si="2"/>
         <v>3.2</v>
       </c>
-      <c r="G28" s="61" t="s">
+      <c r="G30" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="31">
-        <f>K23</f>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="61">
+        <f>K25</f>
         <v>2700</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="23" t="s">
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="F31" s="24">
+        <f>D31*E32</f>
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24">
-        <f>K27+K28</f>
-        <v>46700</v>
-      </c>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="49">
+        <f>K29+K30</f>
+        <v>49500</v>
+      </c>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <f>2+2+1+5+1</f>
+        <v>11</v>
+      </c>
+      <c r="E32" s="64">
+        <v>0.05</v>
+      </c>
+      <c r="F32" s="24">
+        <f>D32*E33</f>
+        <v>0.78099999999999992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <f>1+3+1+1</f>
+        <v>6</v>
+      </c>
+      <c r="E33" s="64">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="E34" s="64"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="E35" s="64">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36">
+        <f>2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37">
+        <f>3+2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38">
+        <f>1+1+2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="62" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="C2:C16"/>
-    <mergeCell ref="E2:E16"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="E17:E23"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="G16:J16"/>
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="K17:M17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="C2:C18"/>
+    <mergeCell ref="E2:E18"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/form/WIR-Teil.xlsx
+++ b/form/WIR-Teil.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -344,9 +344,6 @@
     <t>TLP150R-96S24FJ</t>
   </si>
   <si>
-    <t>Variablekosten</t>
-  </si>
-  <si>
     <t>Materialkosten</t>
   </si>
   <si>
@@ -362,18 +359,12 @@
     <t>100x100mm Singellayer</t>
   </si>
   <si>
-    <t>BEP</t>
-  </si>
-  <si>
     <t>Gewinn-Aufschlag</t>
   </si>
   <si>
     <t xml:space="preserve">Aufschalg </t>
   </si>
   <si>
-    <t>Verkaufspreis / Stück</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -393,6 +384,15 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>Variablekosten:</t>
+  </si>
+  <si>
+    <t>Verkaufspreis / Stück :</t>
+  </si>
+  <si>
+    <t>Break-Even-Point :</t>
   </si>
 </sst>
 </file>
@@ -413,8 +413,8 @@
     <numFmt numFmtId="174" formatCode="0.00&quot;€&quot;"/>
     <numFmt numFmtId="175" formatCode="&quot;€&quot;\ #,##0.00"/>
     <numFmt numFmtId="176" formatCode="0.00&quot; €&quot;"/>
-    <numFmt numFmtId="178" formatCode="0.00&quot; Stk&quot;"/>
-    <numFmt numFmtId="179" formatCode="0&quot;%&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00&quot; Stk&quot;"/>
+    <numFmt numFmtId="178" formatCode="0&quot;%&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -464,7 +464,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -766,20 +766,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -791,9 +858,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -837,78 +901,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,9 +912,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -943,222 +935,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1175,14 +951,258 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1190,54 +1210,122 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3696,3713 +3784,3677 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M248"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A106" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="133" t="s">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="135"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="119" t="s">
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="161"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="123"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="79">
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="156">
         <v>230</v>
       </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="119" t="s">
+      <c r="L2" s="157"/>
+      <c r="M2" s="158"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="123"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="79">
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="101">
         <v>85</v>
       </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="81"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="119" t="s">
+      <c r="L3" s="102"/>
+      <c r="M3" s="103"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="123"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="79">
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="101">
         <v>67</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="120" t="s">
+      <c r="L4" s="102"/>
+      <c r="M4" s="103"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="123"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="76">
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="116">
         <v>86</v>
       </c>
-      <c r="L5" s="77"/>
-      <c r="M5" s="78"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="24"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="118"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="123"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="126" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="127"/>
       <c r="I6" s="127"/>
       <c r="J6" s="128"/>
-      <c r="K6" s="73">
+      <c r="K6" s="119">
         <f>SUM(K2:M5)</f>
         <v>468</v>
       </c>
-      <c r="L6" s="74"/>
-      <c r="M6" s="75"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="49"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="121" t="s">
+      <c r="L6" s="120"/>
+      <c r="M6" s="121"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="123"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="56">
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="113">
         <v>70</v>
       </c>
-      <c r="L7" s="88"/>
-      <c r="M7" s="89"/>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="123" t="s">
+      <c r="L7" s="114"/>
+      <c r="M7" s="115"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="123"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="124"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="85">
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="71">
         <f>K6*K7</f>
         <v>32760</v>
       </c>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="24"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="130" t="s">
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="123"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="123"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="123"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="123"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="123"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="132"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="119" t="s">
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="166"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="167"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="123"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="82">
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="162">
         <v>20</v>
       </c>
-      <c r="L14" s="83"/>
-      <c r="M14" s="84"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="119" t="s">
+      <c r="L14" s="163"/>
+      <c r="M14" s="164"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="123"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="98">
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="104">
         <v>5</v>
       </c>
-      <c r="L15" s="99"/>
-      <c r="M15" s="100"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="49"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="120" t="s">
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="123"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="95">
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="107">
         <v>9</v>
       </c>
-      <c r="L16" s="96"/>
-      <c r="M16" s="97"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="122" t="s">
+      <c r="L16" s="108"/>
+      <c r="M16" s="109"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="123"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="92" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="93"/>
       <c r="I17" s="93"/>
       <c r="J17" s="94"/>
-      <c r="K17" s="90">
+      <c r="K17" s="110">
         <f>K16*K15*K14</f>
         <v>900</v>
       </c>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="81"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="119" t="s">
+      <c r="L17" s="111"/>
+      <c r="M17" s="112"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="123"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="103"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="123"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="101">
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="83">
         <v>25</v>
       </c>
-      <c r="L19" s="102"/>
-      <c r="M19" s="103"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="119" t="s">
+      <c r="L19" s="84"/>
+      <c r="M19" s="85"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="123"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="101">
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="83">
         <v>85</v>
       </c>
-      <c r="L20" s="102"/>
-      <c r="M20" s="103"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="119" t="s">
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="123"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="101">
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="83">
         <v>50</v>
       </c>
-      <c r="L21" s="102"/>
-      <c r="M21" s="103"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="49"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="120" t="s">
+      <c r="L21" s="84"/>
+      <c r="M21" s="85"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="123"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="110">
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89">
         <v>40</v>
       </c>
-      <c r="L22" s="111"/>
-      <c r="M22" s="112"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="122" t="s">
+      <c r="L22" s="90"/>
+      <c r="M22" s="91"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="123"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="92" t="s">
         <v>44</v>
       </c>
       <c r="H23" s="93"/>
       <c r="I23" s="93"/>
       <c r="J23" s="94"/>
-      <c r="K23" s="107">
+      <c r="K23" s="95">
         <f>(K19+K20+K21+K22)*K16</f>
         <v>1800</v>
       </c>
-      <c r="L23" s="108"/>
-      <c r="M23" s="109"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="49"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="106"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="123" t="s">
+      <c r="L23" s="96"/>
+      <c r="M23" s="97"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="123"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="100"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="123"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="85">
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="71">
         <f>K17+K23</f>
         <v>2700</v>
       </c>
-      <c r="L25" s="86"/>
-      <c r="M25" s="87"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="169"/>
-      <c r="M26" s="169"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="169"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="169"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="48"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="130" t="s">
+      <c r="L25" s="72"/>
+      <c r="M25" s="73"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="122"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="122"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="122"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="165" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="131"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="132"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="119" t="s">
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="166"/>
+      <c r="K30" s="166"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="167"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="122"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="116">
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="168">
         <f>K8</f>
         <v>32760</v>
       </c>
-      <c r="L31" s="117"/>
-      <c r="M31" s="118"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="48"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="121" t="s">
+      <c r="L31" s="169"/>
+      <c r="M31" s="170"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="122"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="113">
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="80">
         <f>K25</f>
         <v>2700</v>
       </c>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
-    </row>
-    <row r="33" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="123" t="s">
+      <c r="L32" s="81"/>
+      <c r="M32" s="82"/>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="124"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="85">
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="71">
         <f>K31+K32</f>
         <v>35460</v>
       </c>
-      <c r="L33" s="86"/>
-      <c r="M33" s="87"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="24"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="24"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="24"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="24"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="24"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="24"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="24"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="24"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="24"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="24"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="24"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="59"/>
-    </row>
-    <row r="53" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="130" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="155"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="155"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="161" t="s">
-        <v>113</v>
-      </c>
-      <c r="H53" s="161"/>
-      <c r="I53" s="161"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="161"/>
-      <c r="M53" s="161"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="L33" s="72"/>
+      <c r="M33" s="73"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="22"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="22"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="22"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="22"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="22"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="34"/>
+    </row>
+    <row r="53" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="165" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="174"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
+      <c r="E53" s="174"/>
+      <c r="F53" s="175"/>
+      <c r="G53" s="172" t="s">
+        <v>111</v>
+      </c>
+      <c r="H53" s="172"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="172"/>
+      <c r="K53" s="172"/>
+      <c r="L53" s="172"/>
+      <c r="M53" s="172"/>
+    </row>
+    <row r="54" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="47" t="str">
+      <c r="G54" s="171" t="str">
         <f>A117</f>
-        <v>Variablekosten</v>
-      </c>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="162">
+        <v>Variablekosten:</v>
+      </c>
+      <c r="H54" s="171"/>
+      <c r="I54" s="171"/>
+      <c r="J54" s="171"/>
+      <c r="K54" s="171"/>
+      <c r="L54" s="61">
         <f>E117</f>
         <v>270.72300000000001</v>
       </c>
-      <c r="M54" s="162"/>
-    </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="41" t="s">
+      <c r="M54" s="61"/>
+    </row>
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="61">
+      <c r="B55" s="35">
         <v>0.68</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="129" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="131">
         <v>0.10299999999999999</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="26">
         <f>D55*$E$55</f>
         <v>0.41199999999999998</v>
       </c>
-      <c r="G55" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="163">
+      <c r="G55" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="65">
         <v>20</v>
       </c>
-      <c r="M55" s="163"/>
-    </row>
-    <row r="56" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="61">
+      <c r="M55" s="65"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="129"/>
+      <c r="B56" s="35">
         <v>1</v>
       </c>
-      <c r="C56" s="41"/>
+      <c r="C56" s="129"/>
       <c r="D56" s="1">
         <v>4</v>
       </c>
-      <c r="E56" s="43"/>
-      <c r="F56" s="28">
+      <c r="E56" s="131"/>
+      <c r="F56" s="26">
         <f t="shared" ref="F56:F69" si="0">D56*$E$55</f>
         <v>0.41199999999999998</v>
       </c>
-      <c r="G56" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="164">
+      <c r="G56" s="144" t="s">
+        <v>121</v>
+      </c>
+      <c r="H56" s="144"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="144"/>
+      <c r="K56" s="144"/>
+      <c r="L56" s="148">
         <f>L54*(1+L55/100)</f>
         <v>324.86759999999998</v>
       </c>
-      <c r="M56" s="164"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="61">
+      <c r="M56" s="148"/>
+    </row>
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="129"/>
+      <c r="B57" s="35">
         <v>10</v>
       </c>
-      <c r="C57" s="41"/>
+      <c r="C57" s="129"/>
       <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="43"/>
-      <c r="F57" s="28">
+      <c r="E57" s="131"/>
+      <c r="F57" s="26">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="61">
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="145"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="149"/>
+      <c r="M57" s="149"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="129"/>
+      <c r="B58" s="35">
         <v>100</v>
       </c>
-      <c r="C58" s="41"/>
+      <c r="C58" s="129"/>
       <c r="D58" s="1">
         <v>6</v>
       </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="28">
+      <c r="E58" s="131"/>
+      <c r="F58" s="26">
         <f t="shared" si="0"/>
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A59" s="41"/>
-      <c r="B59" s="61">
+    <row r="59" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="129"/>
+      <c r="B59" s="35">
         <v>330</v>
       </c>
-      <c r="C59" s="41"/>
+      <c r="C59" s="129"/>
       <c r="D59" s="1">
         <v>1</v>
       </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="28">
+      <c r="E59" s="131"/>
+      <c r="F59" s="26">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="G59" s="161" t="s">
-        <v>109</v>
-      </c>
-      <c r="H59" s="161"/>
-      <c r="I59" s="161"/>
-      <c r="J59" s="161"/>
-      <c r="K59" s="161"/>
-      <c r="L59" s="161"/>
-      <c r="M59" s="161"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
-      <c r="B60" s="61">
+      <c r="G59" s="172" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" s="172"/>
+      <c r="I59" s="172"/>
+      <c r="J59" s="172"/>
+      <c r="K59" s="172"/>
+      <c r="L59" s="172"/>
+      <c r="M59" s="172"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="129"/>
+      <c r="B60" s="35">
         <v>560</v>
       </c>
-      <c r="C60" s="41"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="1">
         <v>1</v>
       </c>
-      <c r="E60" s="43"/>
-      <c r="F60" s="28">
+      <c r="E60" s="131"/>
+      <c r="F60" s="26">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="G60" s="47" t="str">
+      <c r="G60" s="171" t="str">
         <f>G33</f>
         <v>Fixkosten</v>
       </c>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="116">
+      <c r="H60" s="171"/>
+      <c r="I60" s="171"/>
+      <c r="J60" s="171"/>
+      <c r="K60" s="171"/>
+      <c r="L60" s="168">
         <f>K33</f>
         <v>35460</v>
       </c>
-      <c r="M60" s="118"/>
-    </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="41"/>
-      <c r="B61" s="61">
+      <c r="M60" s="170"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="129"/>
+      <c r="B61" s="35">
         <v>820</v>
       </c>
-      <c r="C61" s="41"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="1">
         <v>2</v>
       </c>
-      <c r="E61" s="43"/>
-      <c r="F61" s="28">
+      <c r="E61" s="131"/>
+      <c r="F61" s="26">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="G61" s="55" t="str">
+      <c r="G61" s="62" t="str">
         <f>G56</f>
-        <v>Verkaufspreis / Stück</v>
-      </c>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="165">
+        <v>Verkaufspreis / Stück :</v>
+      </c>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="63">
         <f>L56</f>
         <v>324.86759999999998</v>
       </c>
-      <c r="M61" s="166"/>
-    </row>
-    <row r="62" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41"/>
-      <c r="B62" s="61" t="s">
+      <c r="M61" s="64"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="129"/>
+      <c r="B62" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="41"/>
+      <c r="C62" s="129"/>
       <c r="D62" s="1">
         <v>2</v>
       </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="28">
+      <c r="E62" s="131"/>
+      <c r="F62" s="26">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="G62" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="167">
+      <c r="G62" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="H62" s="144"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="144"/>
+      <c r="K62" s="144"/>
+      <c r="L62" s="151">
         <f>L60/(L61-L54)</f>
         <v>654.91295530856303</v>
       </c>
-      <c r="M62" s="153"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
-      <c r="B63" s="61" t="s">
+      <c r="M62" s="151"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="129"/>
+      <c r="B63" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="41"/>
+      <c r="C63" s="129"/>
       <c r="D63" s="1">
         <v>2</v>
       </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="28">
+      <c r="E63" s="131"/>
+      <c r="F63" s="26">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="41"/>
-      <c r="B64" s="61" t="s">
+      <c r="G63" s="145"/>
+      <c r="H63" s="145"/>
+      <c r="I63" s="145"/>
+      <c r="J63" s="145"/>
+      <c r="K63" s="145"/>
+      <c r="L63" s="152"/>
+      <c r="M63" s="152"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="129"/>
+      <c r="B64" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="41"/>
+      <c r="C64" s="129"/>
       <c r="D64" s="1">
         <v>7</v>
       </c>
-      <c r="E64" s="43"/>
-      <c r="F64" s="28">
+      <c r="E64" s="131"/>
+      <c r="F64" s="26">
         <f t="shared" si="0"/>
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
-      <c r="B65" s="61" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="129"/>
+      <c r="B65" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="41"/>
+      <c r="C65" s="129"/>
       <c r="D65" s="1">
         <v>8</v>
       </c>
-      <c r="E65" s="43"/>
-      <c r="F65" s="28">
+      <c r="E65" s="131"/>
+      <c r="F65" s="26">
         <f t="shared" si="0"/>
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="41"/>
-      <c r="B66" s="61" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="129"/>
+      <c r="B66" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="41"/>
+      <c r="C66" s="129"/>
       <c r="D66" s="1">
         <v>7</v>
       </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="28">
+      <c r="E66" s="131"/>
+      <c r="F66" s="26">
         <f t="shared" si="0"/>
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
-      <c r="B67" s="61" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="129"/>
+      <c r="B67" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="41"/>
+      <c r="C67" s="129"/>
       <c r="D67" s="1">
         <v>16</v>
       </c>
-      <c r="E67" s="43"/>
-      <c r="F67" s="28">
+      <c r="E67" s="131"/>
+      <c r="F67" s="26">
         <f t="shared" si="0"/>
         <v>1.6479999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="41"/>
-      <c r="B68" s="61" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="129"/>
+      <c r="B68" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="41"/>
+      <c r="C68" s="129"/>
       <c r="D68" s="1">
         <v>2</v>
       </c>
-      <c r="E68" s="43"/>
-      <c r="F68" s="28">
+      <c r="E68" s="131"/>
+      <c r="F68" s="26">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="37"/>
-      <c r="B69" s="61" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="130"/>
+      <c r="B69" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="41"/>
+      <c r="C69" s="129"/>
       <c r="D69" s="1">
         <v>2</v>
       </c>
-      <c r="E69" s="43"/>
-      <c r="F69" s="28">
+      <c r="E69" s="131"/>
+      <c r="F69" s="26">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="44" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="B70" s="62" t="s">
+      <c r="B70" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="11">
         <v>5</v>
       </c>
-      <c r="E70" s="147">
+      <c r="E70" s="49">
         <v>0.21</v>
       </c>
-      <c r="F70" s="29">
+      <c r="F70" s="27">
         <f>D70*E70</f>
         <v>1.05</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="45"/>
-      <c r="B71" s="62" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="133"/>
+      <c r="B71" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C71" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="11">
         <v>1</v>
       </c>
-      <c r="E71" s="147">
+      <c r="E71" s="49">
         <v>3.99</v>
       </c>
-      <c r="F71" s="29">
+      <c r="F71" s="27">
         <f t="shared" ref="F71:F116" si="1">D71*E71</f>
         <v>3.99</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="36" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="61" t="s">
+      <c r="B72" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="41" t="s">
+      <c r="C72" s="129" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="1">
         <v>2</v>
       </c>
-      <c r="E72" s="148">
+      <c r="E72" s="135">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F72" s="28">
+      <c r="F72" s="26">
         <f>D72*$E$72</f>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="61" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="129"/>
+      <c r="B73" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="41"/>
+      <c r="C73" s="129"/>
       <c r="D73" s="1">
         <v>6</v>
       </c>
-      <c r="E73" s="148"/>
-      <c r="F73" s="28">
+      <c r="E73" s="135"/>
+      <c r="F73" s="26">
         <f t="shared" ref="F73:F78" si="2">D73*$E$72</f>
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="41"/>
-      <c r="B74" s="61" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="129"/>
+      <c r="B74" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="41"/>
+      <c r="C74" s="129"/>
       <c r="D74" s="1">
         <v>6</v>
       </c>
-      <c r="E74" s="148"/>
-      <c r="F74" s="28">
+      <c r="E74" s="135"/>
+      <c r="F74" s="26">
         <f t="shared" si="2"/>
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="41"/>
-      <c r="B75" s="61" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="129"/>
+      <c r="B75" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="41"/>
+      <c r="C75" s="129"/>
       <c r="D75" s="1">
         <v>15</v>
       </c>
-      <c r="E75" s="148"/>
-      <c r="F75" s="28">
+      <c r="E75" s="135"/>
+      <c r="F75" s="26">
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="41"/>
-      <c r="B76" s="61" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="129"/>
+      <c r="B76" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="41"/>
+      <c r="C76" s="129"/>
       <c r="D76" s="1">
         <v>4</v>
       </c>
-      <c r="E76" s="148"/>
-      <c r="F76" s="28">
+      <c r="E76" s="135"/>
+      <c r="F76" s="26">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="41"/>
-      <c r="B77" s="61" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="129"/>
+      <c r="B77" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="41"/>
+      <c r="C77" s="129"/>
       <c r="D77" s="1">
         <v>4</v>
       </c>
-      <c r="E77" s="148"/>
-      <c r="F77" s="28">
+      <c r="E77" s="135"/>
+      <c r="F77" s="26">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="37"/>
-      <c r="B78" s="63" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="130"/>
+      <c r="B78" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="37"/>
+      <c r="C78" s="130"/>
       <c r="D78" s="2">
         <v>1</v>
       </c>
-      <c r="E78" s="149"/>
-      <c r="F78" s="30">
+      <c r="E78" s="136"/>
+      <c r="F78" s="28">
         <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="38" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="134" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
       </c>
-      <c r="E79" s="150">
+      <c r="E79" s="50">
         <v>0.15</v>
       </c>
-      <c r="F79" s="28">
+      <c r="F79" s="26">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="39"/>
-      <c r="B80" s="64" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="138"/>
+      <c r="B80" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C80" s="41"/>
+      <c r="C80" s="129"/>
       <c r="D80" s="4">
         <v>2</v>
       </c>
-      <c r="E80" s="151">
+      <c r="E80" s="51">
         <v>0.09</v>
       </c>
-      <c r="F80" s="28">
+      <c r="F80" s="26">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="39"/>
-      <c r="B81" s="64" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="138"/>
+      <c r="B81" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="41"/>
+      <c r="C81" s="129"/>
       <c r="D81" s="4">
         <v>29</v>
       </c>
-      <c r="E81" s="151">
+      <c r="E81" s="51">
         <v>0.08</v>
       </c>
-      <c r="F81" s="28">
+      <c r="F81" s="26">
         <f t="shared" si="1"/>
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="39"/>
-      <c r="B82" s="64" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="138"/>
+      <c r="B82" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="41"/>
+      <c r="C82" s="129"/>
       <c r="D82" s="4">
         <v>2</v>
       </c>
-      <c r="E82" s="151">
+      <c r="E82" s="51">
         <v>0.09</v>
       </c>
-      <c r="F82" s="28">
+      <c r="F82" s="26">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="65" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="139"/>
+      <c r="B83" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="37"/>
+      <c r="C83" s="130"/>
       <c r="D83" s="5">
         <v>4</v>
       </c>
-      <c r="E83" s="152">
+      <c r="E83" s="52">
         <v>1.6</v>
       </c>
-      <c r="F83" s="30">
+      <c r="F83" s="28">
         <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B84" s="62" t="s">
+      <c r="B84" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C84" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="11">
         <v>8</v>
       </c>
-      <c r="E84" s="147">
+      <c r="E84" s="49">
         <v>0.04</v>
       </c>
-      <c r="F84" s="29">
+      <c r="F84" s="27">
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B85" s="62" t="s">
+      <c r="B85" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D85" s="11">
         <v>1</v>
       </c>
-      <c r="E85" s="147">
+      <c r="E85" s="49">
         <v>0.09</v>
       </c>
-      <c r="F85" s="29">
+      <c r="F85" s="27">
         <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="42" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="B86" s="62" t="s">
+      <c r="B86" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D86" s="11">
         <v>4</v>
       </c>
-      <c r="E86" s="147">
+      <c r="E86" s="49">
         <v>0.24</v>
       </c>
-      <c r="F86" s="29">
+      <c r="F86" s="27">
         <f t="shared" si="1"/>
         <v>0.96</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="42"/>
-      <c r="B87" s="62" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="140"/>
+      <c r="B87" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="37"/>
-      <c r="D87" s="13">
+      <c r="C87" s="130"/>
+      <c r="D87" s="11">
         <v>4</v>
       </c>
-      <c r="E87" s="147">
+      <c r="E87" s="49">
         <v>0.73</v>
       </c>
-      <c r="F87" s="29">
+      <c r="F87" s="27">
         <f t="shared" si="1"/>
         <v>2.92</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="42" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="B88" s="62" t="s">
+      <c r="B88" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="13">
+      <c r="D88" s="11">
         <v>2</v>
       </c>
-      <c r="E88" s="147">
+      <c r="E88" s="49">
         <v>0.32</v>
       </c>
-      <c r="F88" s="29">
+      <c r="F88" s="27">
         <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="42"/>
-      <c r="B89" s="62" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="140"/>
+      <c r="B89" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C89" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="13">
+      <c r="D89" s="11">
         <v>2</v>
       </c>
-      <c r="E89" s="147">
+      <c r="E89" s="49">
         <v>0.32</v>
       </c>
-      <c r="F89" s="29">
+      <c r="F89" s="27">
         <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B90" s="62" t="s">
+      <c r="B90" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="13">
+      <c r="D90" s="11">
         <v>1</v>
       </c>
-      <c r="E90" s="147">
+      <c r="E90" s="49">
         <v>0.38</v>
       </c>
-      <c r="F90" s="29">
+      <c r="F90" s="27">
         <f t="shared" si="1"/>
         <v>0.38</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B91" s="62" t="s">
+      <c r="B91" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="11">
         <v>6</v>
       </c>
-      <c r="E91" s="18">
+      <c r="E91" s="16">
         <v>0.13100000000000001</v>
       </c>
-      <c r="F91" s="29">
+      <c r="F91" s="27">
         <f t="shared" si="1"/>
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B92" s="66" t="s">
+      <c r="B92" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="13">
+      <c r="D92" s="11">
         <v>2</v>
       </c>
-      <c r="E92" s="18">
+      <c r="E92" s="16">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="F92" s="29">
+      <c r="F92" s="27">
         <f t="shared" si="1"/>
         <v>0.182</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="66" t="s">
+      <c r="B93" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="13">
+      <c r="D93" s="11">
         <v>2</v>
       </c>
-      <c r="E93" s="18">
+      <c r="E93" s="16">
         <v>0.151</v>
       </c>
-      <c r="F93" s="29">
+      <c r="F93" s="27">
         <f t="shared" si="1"/>
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B94" s="66" t="s">
+      <c r="B94" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="13">
+      <c r="D94" s="11">
         <v>1</v>
       </c>
-      <c r="E94" s="147">
+      <c r="E94" s="49">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F94" s="29">
+      <c r="F94" s="27">
         <f t="shared" si="1"/>
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="42" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="66" t="s">
+      <c r="B95" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C95" s="42" t="s">
+      <c r="C95" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="13">
+      <c r="D95" s="11">
         <v>12</v>
       </c>
-      <c r="E95" s="146">
+      <c r="E95" s="48">
         <v>0.05</v>
       </c>
-      <c r="F95" s="29">
+      <c r="F95" s="27">
         <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="42"/>
-      <c r="B96" s="66" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="140"/>
+      <c r="B96" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C96" s="42"/>
-      <c r="D96" s="13">
+      <c r="C96" s="140"/>
+      <c r="D96" s="11">
         <v>6</v>
       </c>
-      <c r="E96" s="19">
+      <c r="E96" s="17">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F96" s="29">
+      <c r="F96" s="27">
         <f t="shared" si="1"/>
         <v>0.42599999999999993</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="42"/>
-      <c r="B97" s="66" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="140"/>
+      <c r="B97" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C97" s="42"/>
-      <c r="D97" s="13">
+      <c r="C97" s="140"/>
+      <c r="D97" s="11">
         <v>2</v>
       </c>
-      <c r="E97" s="19">
+      <c r="E97" s="17">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F97" s="29">
+      <c r="F97" s="27">
         <f t="shared" si="1"/>
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B98" s="66" t="s">
+      <c r="B98" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="13">
+      <c r="D98" s="11">
         <v>8</v>
       </c>
-      <c r="E98" s="146">
+      <c r="E98" s="48">
         <v>0.24</v>
       </c>
-      <c r="F98" s="29">
+      <c r="F98" s="27">
         <f t="shared" si="1"/>
         <v>1.92</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="14" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B99" s="57" t="s">
+      <c r="B99" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D99" s="13">
+      <c r="D99" s="11">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="E99" s="146">
+      <c r="E99" s="48">
         <v>2.5</v>
       </c>
-      <c r="F99" s="29">
+      <c r="F99" s="27">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="136" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B100" s="57" t="s">
+      <c r="B100" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="C100" s="136" t="s">
+      <c r="C100" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="13">
         <v>2</v>
       </c>
-      <c r="E100" s="146">
+      <c r="E100" s="48">
         <v>0.6</v>
       </c>
-      <c r="F100" s="29">
+      <c r="F100" s="27">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="137"/>
-      <c r="B101" s="57" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="67"/>
+      <c r="B101" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C101" s="137"/>
-      <c r="D101" s="15">
+      <c r="C101" s="67"/>
+      <c r="D101" s="13">
         <v>2</v>
       </c>
-      <c r="E101" s="146">
+      <c r="E101" s="48">
         <v>0.95</v>
       </c>
-      <c r="F101" s="29">
+      <c r="F101" s="27">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="136" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B102" s="57" t="s">
+      <c r="B102" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C102" s="136" t="s">
+      <c r="C102" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="13">
         <v>2</v>
       </c>
-      <c r="E102" s="146">
+      <c r="E102" s="48">
         <v>0.93</v>
       </c>
-      <c r="F102" s="29">
+      <c r="F102" s="27">
         <f t="shared" si="1"/>
         <v>1.86</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="137"/>
-      <c r="B103" s="57" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="67"/>
+      <c r="B103" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C103" s="137"/>
-      <c r="D103" s="15">
+      <c r="C103" s="67"/>
+      <c r="D103" s="13">
         <v>2</v>
       </c>
-      <c r="E103" s="146">
+      <c r="E103" s="48">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F103" s="29">
+      <c r="F103" s="27">
         <f t="shared" si="1"/>
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="14" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="57" t="s">
+      <c r="B104" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D104" s="15">
+      <c r="D104" s="13">
         <v>1</v>
       </c>
-      <c r="E104" s="146">
+      <c r="E104" s="48">
         <v>1.87</v>
       </c>
-      <c r="F104" s="29">
+      <c r="F104" s="27">
         <f t="shared" si="1"/>
         <v>1.87</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B105" s="57" t="s">
+      <c r="B105" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="13">
         <v>1</v>
       </c>
-      <c r="E105" s="146">
+      <c r="E105" s="48">
         <v>0.46</v>
       </c>
-      <c r="F105" s="29">
+      <c r="F105" s="27">
         <f t="shared" si="1"/>
         <v>0.46</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="14" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B106" s="57" t="s">
+      <c r="B106" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="13">
         <v>1</v>
       </c>
-      <c r="E106" s="146">
+      <c r="E106" s="48">
         <v>6.56</v>
       </c>
-      <c r="F106" s="29">
+      <c r="F106" s="27">
         <f t="shared" si="1"/>
         <v>6.56</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="35" t="s">
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="57" t="s">
+      <c r="B107" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C107" s="36" t="s">
+      <c r="C107" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="D107" s="15">
+      <c r="D107" s="13">
         <v>1</v>
       </c>
-      <c r="E107" s="146">
+      <c r="E107" s="48">
         <v>0.87</v>
       </c>
-      <c r="F107" s="29">
+      <c r="F107" s="27">
         <f t="shared" si="1"/>
         <v>0.87</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="35"/>
-      <c r="B108" s="57" t="s">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="143"/>
+      <c r="B108" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="15">
+      <c r="C108" s="130"/>
+      <c r="D108" s="13">
         <v>1</v>
       </c>
-      <c r="E108" s="146">
+      <c r="E108" s="48">
         <v>0.77</v>
       </c>
-      <c r="F108" s="29">
+      <c r="F108" s="27">
         <f t="shared" si="1"/>
         <v>0.77</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="14" t="s">
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B109" s="57" t="s">
+      <c r="B109" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="15">
+      <c r="D109" s="13">
         <v>1</v>
       </c>
-      <c r="E109" s="146">
+      <c r="E109" s="48">
         <v>11.8</v>
       </c>
-      <c r="F109" s="29">
+      <c r="F109" s="27">
         <f t="shared" si="1"/>
         <v>11.8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="14" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B110" s="67" t="s">
+      <c r="B110" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="13">
         <v>1</v>
       </c>
-      <c r="E110" s="146">
+      <c r="E110" s="48">
         <v>16.440000000000001</v>
       </c>
-      <c r="F110" s="29">
+      <c r="F110" s="27">
         <f t="shared" si="1"/>
         <v>16.440000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="14" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B111" s="67" t="s">
+      <c r="B111" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D111" s="15">
+      <c r="D111" s="13">
         <v>1</v>
       </c>
-      <c r="E111" s="146">
+      <c r="E111" s="48">
         <v>25.16</v>
       </c>
-      <c r="F111" s="29">
+      <c r="F111" s="27">
         <f t="shared" si="1"/>
         <v>25.16</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="14" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B112" s="57" t="s">
+      <c r="B112" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D112" s="15">
+      <c r="C112" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D112" s="13">
         <v>1</v>
       </c>
-      <c r="E112" s="146">
+      <c r="E112" s="48">
         <v>30</v>
       </c>
-      <c r="F112" s="29">
+      <c r="F112" s="27">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="69" t="s">
+    <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="B113" s="67" t="s">
+      <c r="B113" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D113" s="15">
+      <c r="D113" s="13">
         <v>1</v>
       </c>
-      <c r="E113" s="146">
+      <c r="E113" s="48">
         <v>49.99</v>
       </c>
-      <c r="F113" s="29">
+      <c r="F113" s="27">
         <f t="shared" si="1"/>
         <v>49.99</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="140"/>
-      <c r="B114" s="141" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="142"/>
+      <c r="B114" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C114" s="142" t="s">
+      <c r="C114" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="3">
         <v>2</v>
       </c>
-      <c r="E114" s="146">
+      <c r="E114" s="48">
         <v>12.05</v>
       </c>
-      <c r="F114" s="143">
+      <c r="F114" s="45">
         <f t="shared" si="1"/>
         <v>24.1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="157" t="s">
+    <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="B115" s="158" t="s">
-        <v>111</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>122</v>
+      <c r="C115" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="D115" s="3">
         <v>3</v>
       </c>
-      <c r="E115" s="159">
+      <c r="E115" s="56">
         <v>10</v>
       </c>
-      <c r="F115" s="143">
+      <c r="F115" s="45">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="144" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C116" s="145" t="s">
-        <v>121</v>
-      </c>
-      <c r="D116" s="33">
+    <row r="116" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" s="30">
         <v>2</v>
       </c>
-      <c r="E116" s="160">
+      <c r="E116" s="57">
         <v>13.54</v>
       </c>
-      <c r="F116" s="34">
+      <c r="F116" s="31">
         <f t="shared" si="1"/>
         <v>27.08</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="123" t="s">
-        <v>106</v>
-      </c>
-      <c r="B117" s="124"/>
-      <c r="C117" s="124"/>
-      <c r="D117" s="125"/>
-      <c r="E117" s="138">
+    <row r="117" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="144" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="144"/>
+      <c r="C117" s="144"/>
+      <c r="D117" s="144"/>
+      <c r="E117" s="146">
         <f>SUM(F55:F116)</f>
         <v>270.72300000000001</v>
       </c>
-      <c r="F117" s="139"/>
-    </row>
-    <row r="118" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="59"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="11"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B119" s="59"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B120" s="59"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="B146" s="129"/>
-      <c r="C146" s="129" t="s">
-        <v>118</v>
-      </c>
-      <c r="D146" s="129"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F117" s="146"/>
+    </row>
+    <row r="118" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="145"/>
+      <c r="B118" s="145"/>
+      <c r="C118" s="145"/>
+      <c r="D118" s="145"/>
+      <c r="E118" s="147"/>
+      <c r="F118" s="147"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="34"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="34"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B146" s="60"/>
+      <c r="C146" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D146" s="60"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B147" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C147" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D147" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>0</v>
       </c>
-      <c r="B148" s="154">
-        <f>$L$60+A148*$L$54</f>
+      <c r="B148" s="53">
+        <f t="shared" ref="B148:B179" si="3">$L$60+A148*$L$54</f>
         <v>35460</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
-      <c r="D148" s="154">
-        <f>C148*$L$56</f>
+      <c r="D148" s="53">
+        <f t="shared" ref="D148:D179" si="4">C148*$L$56</f>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>10</v>
       </c>
-      <c r="B149" s="154">
-        <f>$L$60+A149*$L$54</f>
+      <c r="B149" s="53">
+        <f t="shared" si="3"/>
         <v>38167.230000000003</v>
       </c>
       <c r="C149">
         <v>10</v>
       </c>
-      <c r="D149" s="154">
-        <f>C149*$L$56</f>
+      <c r="D149" s="53">
+        <f t="shared" si="4"/>
         <v>3248.6759999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>20</v>
       </c>
-      <c r="B150" s="154">
-        <f>$L$60+A150*$L$54</f>
+      <c r="B150" s="53">
+        <f t="shared" si="3"/>
         <v>40874.46</v>
       </c>
       <c r="C150">
         <v>20</v>
       </c>
-      <c r="D150" s="154">
-        <f>C150*$L$56</f>
+      <c r="D150" s="53">
+        <f t="shared" si="4"/>
         <v>6497.3519999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>30</v>
       </c>
-      <c r="B151" s="154">
-        <f>$L$60+A151*$L$54</f>
+      <c r="B151" s="53">
+        <f t="shared" si="3"/>
         <v>43581.69</v>
       </c>
       <c r="C151">
         <v>30</v>
       </c>
-      <c r="D151" s="154">
-        <f>C151*$L$56</f>
+      <c r="D151" s="53">
+        <f t="shared" si="4"/>
         <v>9746.0280000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>40</v>
       </c>
-      <c r="B152" s="154">
-        <f>$L$60+A152*$L$54</f>
+      <c r="B152" s="53">
+        <f t="shared" si="3"/>
         <v>46288.92</v>
       </c>
       <c r="C152">
         <v>40</v>
       </c>
-      <c r="D152" s="154">
-        <f>C152*$L$56</f>
+      <c r="D152" s="53">
+        <f t="shared" si="4"/>
         <v>12994.704</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>50</v>
       </c>
-      <c r="B153" s="154">
-        <f>$L$60+A153*$L$54</f>
+      <c r="B153" s="53">
+        <f t="shared" si="3"/>
         <v>48996.15</v>
       </c>
       <c r="C153">
         <v>50</v>
       </c>
-      <c r="D153" s="154">
-        <f>C153*$L$56</f>
+      <c r="D153" s="53">
+        <f t="shared" si="4"/>
         <v>16243.38</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>60</v>
       </c>
-      <c r="B154" s="154">
-        <f>$L$60+A154*$L$54</f>
+      <c r="B154" s="53">
+        <f t="shared" si="3"/>
         <v>51703.380000000005</v>
       </c>
       <c r="C154">
         <v>60</v>
       </c>
-      <c r="D154" s="154">
-        <f>C154*$L$56</f>
+      <c r="D154" s="53">
+        <f t="shared" si="4"/>
         <v>19492.056</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>70</v>
       </c>
-      <c r="B155" s="154">
-        <f>$L$60+A155*$L$54</f>
+      <c r="B155" s="53">
+        <f t="shared" si="3"/>
         <v>54410.61</v>
       </c>
       <c r="C155">
         <v>70</v>
       </c>
-      <c r="D155" s="154">
-        <f>C155*$L$56</f>
+      <c r="D155" s="53">
+        <f t="shared" si="4"/>
         <v>22740.732</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>80</v>
       </c>
-      <c r="B156" s="154">
-        <f>$L$60+A156*$L$54</f>
+      <c r="B156" s="53">
+        <f t="shared" si="3"/>
         <v>57117.84</v>
       </c>
       <c r="C156">
         <v>80</v>
       </c>
-      <c r="D156" s="154">
-        <f>C156*$L$56</f>
+      <c r="D156" s="53">
+        <f t="shared" si="4"/>
         <v>25989.407999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>90</v>
       </c>
-      <c r="B157" s="154">
-        <f>$L$60+A157*$L$54</f>
+      <c r="B157" s="53">
+        <f t="shared" si="3"/>
         <v>59825.07</v>
       </c>
       <c r="C157">
         <v>90</v>
       </c>
-      <c r="D157" s="154">
-        <f>C157*$L$56</f>
+      <c r="D157" s="53">
+        <f t="shared" si="4"/>
         <v>29238.083999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>100</v>
       </c>
-      <c r="B158" s="154">
-        <f>$L$60+A158*$L$54</f>
+      <c r="B158" s="53">
+        <f t="shared" si="3"/>
         <v>62532.3</v>
       </c>
       <c r="C158">
         <v>100</v>
       </c>
-      <c r="D158" s="154">
-        <f>C158*$L$56</f>
+      <c r="D158" s="53">
+        <f t="shared" si="4"/>
         <v>32486.76</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>110</v>
       </c>
-      <c r="B159" s="154">
-        <f>$L$60+A159*$L$54</f>
+      <c r="B159" s="53">
+        <f t="shared" si="3"/>
         <v>65239.53</v>
       </c>
       <c r="C159">
         <v>110</v>
       </c>
-      <c r="D159" s="154">
-        <f>C159*$L$56</f>
+      <c r="D159" s="53">
+        <f t="shared" si="4"/>
         <v>35735.436000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>120</v>
       </c>
-      <c r="B160" s="154">
-        <f>$L$60+A160*$L$54</f>
+      <c r="B160" s="53">
+        <f t="shared" si="3"/>
         <v>67946.760000000009</v>
       </c>
       <c r="C160">
         <v>120</v>
       </c>
-      <c r="D160" s="154">
-        <f>C160*$L$56</f>
+      <c r="D160" s="53">
+        <f t="shared" si="4"/>
         <v>38984.112000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>130</v>
       </c>
-      <c r="B161" s="154">
-        <f>$L$60+A161*$L$54</f>
+      <c r="B161" s="53">
+        <f t="shared" si="3"/>
         <v>70653.990000000005</v>
       </c>
       <c r="C161">
         <v>130</v>
       </c>
-      <c r="D161" s="154">
-        <f>C161*$L$56</f>
+      <c r="D161" s="53">
+        <f t="shared" si="4"/>
         <v>42232.788</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>140</v>
       </c>
-      <c r="B162" s="154">
-        <f>$L$60+A162*$L$54</f>
+      <c r="B162" s="53">
+        <f t="shared" si="3"/>
         <v>73361.22</v>
       </c>
       <c r="C162">
         <v>140</v>
       </c>
-      <c r="D162" s="154">
-        <f>C162*$L$56</f>
+      <c r="D162" s="53">
+        <f t="shared" si="4"/>
         <v>45481.464</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>150</v>
       </c>
-      <c r="B163" s="154">
-        <f>$L$60+A163*$L$54</f>
+      <c r="B163" s="53">
+        <f t="shared" si="3"/>
         <v>76068.450000000012</v>
       </c>
       <c r="C163">
         <v>150</v>
       </c>
-      <c r="D163" s="154">
-        <f>C163*$L$56</f>
+      <c r="D163" s="53">
+        <f t="shared" si="4"/>
         <v>48730.14</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>160</v>
       </c>
-      <c r="B164" s="154">
-        <f>$L$60+A164*$L$54</f>
+      <c r="B164" s="53">
+        <f t="shared" si="3"/>
         <v>78775.679999999993</v>
       </c>
       <c r="C164">
         <v>160</v>
       </c>
-      <c r="D164" s="154">
-        <f>C164*$L$56</f>
+      <c r="D164" s="53">
+        <f t="shared" si="4"/>
         <v>51978.815999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>170</v>
       </c>
-      <c r="B165" s="154">
-        <f>$L$60+A165*$L$54</f>
+      <c r="B165" s="53">
+        <f t="shared" si="3"/>
         <v>81482.91</v>
       </c>
       <c r="C165">
         <v>170</v>
       </c>
-      <c r="D165" s="154">
-        <f>C165*$L$56</f>
+      <c r="D165" s="53">
+        <f t="shared" si="4"/>
         <v>55227.491999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>180</v>
       </c>
-      <c r="B166" s="154">
-        <f>$L$60+A166*$L$54</f>
+      <c r="B166" s="53">
+        <f t="shared" si="3"/>
         <v>84190.14</v>
       </c>
       <c r="C166">
         <v>180</v>
       </c>
-      <c r="D166" s="154">
-        <f>C166*$L$56</f>
+      <c r="D166" s="53">
+        <f t="shared" si="4"/>
         <v>58476.167999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>190</v>
       </c>
-      <c r="B167" s="154">
-        <f>$L$60+A167*$L$54</f>
+      <c r="B167" s="53">
+        <f t="shared" si="3"/>
         <v>86897.37</v>
       </c>
       <c r="C167">
         <v>190</v>
       </c>
-      <c r="D167" s="154">
-        <f>C167*$L$56</f>
+      <c r="D167" s="53">
+        <f t="shared" si="4"/>
         <v>61724.843999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>200</v>
       </c>
-      <c r="B168" s="154">
-        <f>$L$60+A168*$L$54</f>
+      <c r="B168" s="53">
+        <f t="shared" si="3"/>
         <v>89604.6</v>
       </c>
       <c r="C168">
         <v>200</v>
       </c>
-      <c r="D168" s="154">
-        <f>C168*$L$56</f>
+      <c r="D168" s="53">
+        <f t="shared" si="4"/>
         <v>64973.52</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>210</v>
       </c>
-      <c r="B169" s="154">
-        <f>$L$60+A169*$L$54</f>
+      <c r="B169" s="53">
+        <f t="shared" si="3"/>
         <v>92311.83</v>
       </c>
       <c r="C169">
         <v>210</v>
       </c>
-      <c r="D169" s="154">
-        <f>C169*$L$56</f>
+      <c r="D169" s="53">
+        <f t="shared" si="4"/>
         <v>68222.195999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>220</v>
       </c>
-      <c r="B170" s="154">
-        <f>$L$60+A170*$L$54</f>
+      <c r="B170" s="53">
+        <f t="shared" si="3"/>
         <v>95019.06</v>
       </c>
       <c r="C170">
         <v>220</v>
       </c>
-      <c r="D170" s="154">
-        <f>C170*$L$56</f>
+      <c r="D170" s="53">
+        <f t="shared" si="4"/>
         <v>71470.872000000003</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>230</v>
       </c>
-      <c r="B171" s="154">
-        <f>$L$60+A171*$L$54</f>
+      <c r="B171" s="53">
+        <f t="shared" si="3"/>
         <v>97726.290000000008</v>
       </c>
       <c r="C171">
         <v>230</v>
       </c>
-      <c r="D171" s="154">
-        <f>C171*$L$56</f>
+      <c r="D171" s="53">
+        <f t="shared" si="4"/>
         <v>74719.547999999995</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>240</v>
       </c>
-      <c r="B172" s="154">
-        <f>$L$60+A172*$L$54</f>
+      <c r="B172" s="53">
+        <f t="shared" si="3"/>
         <v>100433.52</v>
       </c>
       <c r="C172">
         <v>240</v>
       </c>
-      <c r="D172" s="154">
-        <f>C172*$L$56</f>
+      <c r="D172" s="53">
+        <f t="shared" si="4"/>
         <v>77968.224000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>250</v>
       </c>
-      <c r="B173" s="154">
-        <f>$L$60+A173*$L$54</f>
+      <c r="B173" s="53">
+        <f t="shared" si="3"/>
         <v>103140.75</v>
       </c>
       <c r="C173">
         <v>250</v>
       </c>
-      <c r="D173" s="154">
-        <f>C173*$L$56</f>
+      <c r="D173" s="53">
+        <f t="shared" si="4"/>
         <v>81216.899999999994</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>260</v>
       </c>
-      <c r="B174" s="154">
-        <f>$L$60+A174*$L$54</f>
+      <c r="B174" s="53">
+        <f t="shared" si="3"/>
         <v>105847.98000000001</v>
       </c>
       <c r="C174">
         <v>260</v>
       </c>
-      <c r="D174" s="154">
-        <f>C174*$L$56</f>
+      <c r="D174" s="53">
+        <f t="shared" si="4"/>
         <v>84465.576000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>270</v>
       </c>
-      <c r="B175" s="154">
-        <f>$L$60+A175*$L$54</f>
+      <c r="B175" s="53">
+        <f t="shared" si="3"/>
         <v>108555.21</v>
       </c>
       <c r="C175">
         <v>270</v>
       </c>
-      <c r="D175" s="154">
-        <f>C175*$L$56</f>
+      <c r="D175" s="53">
+        <f t="shared" si="4"/>
         <v>87714.251999999993</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>280</v>
       </c>
-      <c r="B176" s="154">
-        <f>$L$60+A176*$L$54</f>
+      <c r="B176" s="53">
+        <f t="shared" si="3"/>
         <v>111262.44</v>
       </c>
       <c r="C176">
         <v>280</v>
       </c>
-      <c r="D176" s="154">
-        <f>C176*$L$56</f>
+      <c r="D176" s="53">
+        <f t="shared" si="4"/>
         <v>90962.928</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>290</v>
       </c>
-      <c r="B177" s="154">
-        <f>$L$60+A177*$L$54</f>
+      <c r="B177" s="53">
+        <f t="shared" si="3"/>
         <v>113969.67</v>
       </c>
       <c r="C177">
         <v>290</v>
       </c>
-      <c r="D177" s="154">
-        <f>C177*$L$56</f>
+      <c r="D177" s="53">
+        <f t="shared" si="4"/>
         <v>94211.603999999992</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>300</v>
       </c>
-      <c r="B178" s="154">
-        <f>$L$60+A178*$L$54</f>
+      <c r="B178" s="53">
+        <f t="shared" si="3"/>
         <v>116676.90000000001</v>
       </c>
       <c r="C178">
         <v>300</v>
       </c>
-      <c r="D178" s="154">
-        <f>C178*$L$56</f>
+      <c r="D178" s="53">
+        <f t="shared" si="4"/>
         <v>97460.28</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>310</v>
       </c>
-      <c r="B179" s="154">
-        <f>$L$60+A179*$L$54</f>
+      <c r="B179" s="53">
+        <f t="shared" si="3"/>
         <v>119384.13</v>
       </c>
       <c r="C179">
         <v>310</v>
       </c>
-      <c r="D179" s="154">
-        <f>C179*$L$56</f>
+      <c r="D179" s="53">
+        <f t="shared" si="4"/>
         <v>100708.95599999999</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>320</v>
       </c>
-      <c r="B180" s="154">
-        <f>$L$60+A180*$L$54</f>
+      <c r="B180" s="53">
+        <f t="shared" ref="B180:B211" si="5">$L$60+A180*$L$54</f>
         <v>122091.36</v>
       </c>
       <c r="C180">
         <v>320</v>
       </c>
-      <c r="D180" s="154">
-        <f>C180*$L$56</f>
+      <c r="D180" s="53">
+        <f t="shared" ref="D180:D211" si="6">C180*$L$56</f>
         <v>103957.632</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>330</v>
       </c>
-      <c r="B181" s="154">
-        <f>$L$60+A181*$L$54</f>
+      <c r="B181" s="53">
+        <f t="shared" si="5"/>
         <v>124798.59000000001</v>
       </c>
       <c r="C181">
         <v>330</v>
       </c>
-      <c r="D181" s="154">
-        <f>C181*$L$56</f>
+      <c r="D181" s="53">
+        <f t="shared" si="6"/>
         <v>107206.30799999999</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>340</v>
       </c>
-      <c r="B182" s="154">
-        <f>$L$60+A182*$L$54</f>
+      <c r="B182" s="53">
+        <f t="shared" si="5"/>
         <v>127505.82</v>
       </c>
       <c r="C182">
         <v>340</v>
       </c>
-      <c r="D182" s="154">
-        <f>C182*$L$56</f>
+      <c r="D182" s="53">
+        <f t="shared" si="6"/>
         <v>110454.984</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>350</v>
       </c>
-      <c r="B183" s="154">
-        <f>$L$60+A183*$L$54</f>
+      <c r="B183" s="53">
+        <f t="shared" si="5"/>
         <v>130213.05</v>
       </c>
       <c r="C183">
         <v>350</v>
       </c>
-      <c r="D183" s="154">
-        <f>C183*$L$56</f>
+      <c r="D183" s="53">
+        <f t="shared" si="6"/>
         <v>113703.65999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>360</v>
       </c>
-      <c r="B184" s="154">
-        <f>$L$60+A184*$L$54</f>
+      <c r="B184" s="53">
+        <f t="shared" si="5"/>
         <v>132920.28</v>
       </c>
       <c r="C184">
         <v>360</v>
       </c>
-      <c r="D184" s="154">
-        <f>C184*$L$56</f>
+      <c r="D184" s="53">
+        <f t="shared" si="6"/>
         <v>116952.336</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>370</v>
       </c>
-      <c r="B185" s="154">
-        <f>$L$60+A185*$L$54</f>
+      <c r="B185" s="53">
+        <f t="shared" si="5"/>
         <v>135627.51</v>
       </c>
       <c r="C185">
         <v>370</v>
       </c>
-      <c r="D185" s="154">
-        <f>C185*$L$56</f>
+      <c r="D185" s="53">
+        <f t="shared" si="6"/>
         <v>120201.01199999999</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>380</v>
       </c>
-      <c r="B186" s="154">
-        <f>$L$60+A186*$L$54</f>
+      <c r="B186" s="53">
+        <f t="shared" si="5"/>
         <v>138334.74</v>
       </c>
       <c r="C186">
         <v>380</v>
       </c>
-      <c r="D186" s="154">
-        <f>C186*$L$56</f>
+      <c r="D186" s="53">
+        <f t="shared" si="6"/>
         <v>123449.68799999999</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>390</v>
       </c>
-      <c r="B187" s="154">
-        <f>$L$60+A187*$L$54</f>
+      <c r="B187" s="53">
+        <f t="shared" si="5"/>
         <v>141041.97</v>
       </c>
       <c r="C187">
         <v>390</v>
       </c>
-      <c r="D187" s="154">
-        <f>C187*$L$56</f>
+      <c r="D187" s="53">
+        <f t="shared" si="6"/>
         <v>126698.36399999999</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>400</v>
       </c>
-      <c r="B188" s="154">
-        <f>$L$60+A188*$L$54</f>
+      <c r="B188" s="53">
+        <f t="shared" si="5"/>
         <v>143749.20000000001</v>
       </c>
       <c r="C188">
         <v>400</v>
       </c>
-      <c r="D188" s="154">
-        <f>C188*$L$56</f>
+      <c r="D188" s="53">
+        <f t="shared" si="6"/>
         <v>129947.04</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>410</v>
       </c>
-      <c r="B189" s="154">
-        <f>$L$60+A189*$L$54</f>
+      <c r="B189" s="53">
+        <f t="shared" si="5"/>
         <v>146456.43</v>
       </c>
       <c r="C189">
         <v>410</v>
       </c>
-      <c r="D189" s="154">
-        <f>C189*$L$56</f>
+      <c r="D189" s="53">
+        <f t="shared" si="6"/>
         <v>133195.71599999999</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>420</v>
       </c>
-      <c r="B190" s="154">
-        <f>$L$60+A190*$L$54</f>
+      <c r="B190" s="53">
+        <f t="shared" si="5"/>
         <v>149163.66</v>
       </c>
       <c r="C190">
         <v>420</v>
       </c>
-      <c r="D190" s="154">
-        <f>C190*$L$56</f>
+      <c r="D190" s="53">
+        <f t="shared" si="6"/>
         <v>136444.39199999999</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>430</v>
       </c>
-      <c r="B191" s="154">
-        <f>$L$60+A191*$L$54</f>
+      <c r="B191" s="53">
+        <f t="shared" si="5"/>
         <v>151870.89000000001</v>
       </c>
       <c r="C191">
         <v>430</v>
       </c>
-      <c r="D191" s="154">
-        <f>C191*$L$56</f>
+      <c r="D191" s="53">
+        <f t="shared" si="6"/>
         <v>139693.068</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>440</v>
       </c>
-      <c r="B192" s="154">
-        <f>$L$60+A192*$L$54</f>
+      <c r="B192" s="53">
+        <f t="shared" si="5"/>
         <v>154578.12</v>
       </c>
       <c r="C192">
         <v>440</v>
       </c>
-      <c r="D192" s="154">
-        <f>C192*$L$56</f>
+      <c r="D192" s="53">
+        <f t="shared" si="6"/>
         <v>142941.74400000001</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>450</v>
       </c>
-      <c r="B193" s="154">
-        <f>$L$60+A193*$L$54</f>
+      <c r="B193" s="53">
+        <f t="shared" si="5"/>
         <v>157285.35</v>
       </c>
       <c r="C193">
         <v>450</v>
       </c>
-      <c r="D193" s="154">
-        <f>C193*$L$56</f>
+      <c r="D193" s="53">
+        <f t="shared" si="6"/>
         <v>146190.41999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>460</v>
       </c>
-      <c r="B194" s="154">
-        <f>$L$60+A194*$L$54</f>
+      <c r="B194" s="53">
+        <f t="shared" si="5"/>
         <v>159992.58000000002</v>
       </c>
       <c r="C194">
         <v>460</v>
       </c>
-      <c r="D194" s="154">
-        <f>C194*$L$56</f>
+      <c r="D194" s="53">
+        <f t="shared" si="6"/>
         <v>149439.09599999999</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>470</v>
       </c>
-      <c r="B195" s="154">
-        <f>$L$60+A195*$L$54</f>
+      <c r="B195" s="53">
+        <f t="shared" si="5"/>
         <v>162699.81</v>
       </c>
       <c r="C195">
         <v>470</v>
       </c>
-      <c r="D195" s="154">
-        <f>C195*$L$56</f>
+      <c r="D195" s="53">
+        <f t="shared" si="6"/>
         <v>152687.772</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>480</v>
       </c>
-      <c r="B196" s="154">
-        <f>$L$60+A196*$L$54</f>
+      <c r="B196" s="53">
+        <f t="shared" si="5"/>
         <v>165407.04000000001</v>
       </c>
       <c r="C196">
         <v>480</v>
       </c>
-      <c r="D196" s="154">
-        <f>C196*$L$56</f>
+      <c r="D196" s="53">
+        <f t="shared" si="6"/>
         <v>155936.448</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>490</v>
       </c>
-      <c r="B197" s="154">
-        <f>$L$60+A197*$L$54</f>
+      <c r="B197" s="53">
+        <f t="shared" si="5"/>
         <v>168114.27000000002</v>
       </c>
       <c r="C197">
         <v>490</v>
       </c>
-      <c r="D197" s="154">
-        <f>C197*$L$56</f>
+      <c r="D197" s="53">
+        <f t="shared" si="6"/>
         <v>159185.12399999998</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>500</v>
       </c>
-      <c r="B198" s="154">
-        <f>$L$60+A198*$L$54</f>
+      <c r="B198" s="53">
+        <f t="shared" si="5"/>
         <v>170821.5</v>
       </c>
       <c r="C198">
         <v>500</v>
       </c>
-      <c r="D198" s="154">
-        <f>C198*$L$56</f>
+      <c r="D198" s="53">
+        <f t="shared" si="6"/>
         <v>162433.79999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>510</v>
       </c>
-      <c r="B199" s="154">
-        <f>$L$60+A199*$L$54</f>
+      <c r="B199" s="53">
+        <f t="shared" si="5"/>
         <v>173528.73</v>
       </c>
       <c r="C199">
         <v>510</v>
       </c>
-      <c r="D199" s="154">
-        <f>C199*$L$56</f>
+      <c r="D199" s="53">
+        <f t="shared" si="6"/>
         <v>165682.476</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>520</v>
       </c>
-      <c r="B200" s="154">
-        <f>$L$60+A200*$L$54</f>
+      <c r="B200" s="53">
+        <f t="shared" si="5"/>
         <v>176235.96000000002</v>
       </c>
       <c r="C200">
         <v>520</v>
       </c>
-      <c r="D200" s="154">
-        <f>C200*$L$56</f>
+      <c r="D200" s="53">
+        <f t="shared" si="6"/>
         <v>168931.152</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>530</v>
       </c>
-      <c r="B201" s="154">
-        <f>$L$60+A201*$L$54</f>
+      <c r="B201" s="53">
+        <f t="shared" si="5"/>
         <v>178943.19</v>
       </c>
       <c r="C201">
         <v>530</v>
       </c>
-      <c r="D201" s="154">
-        <f>C201*$L$56</f>
+      <c r="D201" s="53">
+        <f t="shared" si="6"/>
         <v>172179.82799999998</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>540</v>
       </c>
-      <c r="B202" s="154">
-        <f>$L$60+A202*$L$54</f>
+      <c r="B202" s="53">
+        <f t="shared" si="5"/>
         <v>181650.42</v>
       </c>
       <c r="C202">
         <v>540</v>
       </c>
-      <c r="D202" s="154">
-        <f>C202*$L$56</f>
+      <c r="D202" s="53">
+        <f t="shared" si="6"/>
         <v>175428.50399999999</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>550</v>
       </c>
-      <c r="B203" s="154">
-        <f>$L$60+A203*$L$54</f>
+      <c r="B203" s="53">
+        <f t="shared" si="5"/>
         <v>184357.65</v>
       </c>
       <c r="C203">
         <v>550</v>
       </c>
-      <c r="D203" s="154">
-        <f>C203*$L$56</f>
+      <c r="D203" s="53">
+        <f t="shared" si="6"/>
         <v>178677.18</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>560</v>
       </c>
-      <c r="B204" s="154">
-        <f>$L$60+A204*$L$54</f>
+      <c r="B204" s="53">
+        <f t="shared" si="5"/>
         <v>187064.88</v>
       </c>
       <c r="C204">
         <v>560</v>
       </c>
-      <c r="D204" s="154">
-        <f>C204*$L$56</f>
+      <c r="D204" s="53">
+        <f t="shared" si="6"/>
         <v>181925.856</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>570</v>
       </c>
-      <c r="B205" s="154">
-        <f>$L$60+A205*$L$54</f>
+      <c r="B205" s="53">
+        <f t="shared" si="5"/>
         <v>189772.11000000002</v>
       </c>
       <c r="C205">
         <v>570</v>
       </c>
-      <c r="D205" s="154">
-        <f>C205*$L$56</f>
+      <c r="D205" s="53">
+        <f t="shared" si="6"/>
         <v>185174.53199999998</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>580</v>
       </c>
-      <c r="B206" s="154">
-        <f>$L$60+A206*$L$54</f>
+      <c r="B206" s="53">
+        <f t="shared" si="5"/>
         <v>192479.34</v>
       </c>
       <c r="C206">
         <v>580</v>
       </c>
-      <c r="D206" s="154">
-        <f>C206*$L$56</f>
+      <c r="D206" s="53">
+        <f t="shared" si="6"/>
         <v>188423.20799999998</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>590</v>
       </c>
-      <c r="B207" s="154">
-        <f>$L$60+A207*$L$54</f>
+      <c r="B207" s="53">
+        <f t="shared" si="5"/>
         <v>195186.57</v>
       </c>
       <c r="C207">
         <v>590</v>
       </c>
-      <c r="D207" s="154">
-        <f>C207*$L$56</f>
+      <c r="D207" s="53">
+        <f t="shared" si="6"/>
         <v>191671.88399999999</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>600</v>
       </c>
-      <c r="B208" s="154">
-        <f>$L$60+A208*$L$54</f>
+      <c r="B208" s="53">
+        <f t="shared" si="5"/>
         <v>197893.80000000002</v>
       </c>
       <c r="C208">
         <v>600</v>
       </c>
-      <c r="D208" s="154">
-        <f>C208*$L$56</f>
+      <c r="D208" s="53">
+        <f t="shared" si="6"/>
         <v>194920.56</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>610</v>
       </c>
-      <c r="B209" s="154">
-        <f>$L$60+A209*$L$54</f>
+      <c r="B209" s="53">
+        <f t="shared" si="5"/>
         <v>200601.03</v>
       </c>
       <c r="C209">
         <v>610</v>
       </c>
-      <c r="D209" s="154">
-        <f>C209*$L$56</f>
+      <c r="D209" s="53">
+        <f t="shared" si="6"/>
         <v>198169.23599999998</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>620</v>
       </c>
-      <c r="B210" s="154">
-        <f>$L$60+A210*$L$54</f>
+      <c r="B210" s="53">
+        <f t="shared" si="5"/>
         <v>203308.26</v>
       </c>
       <c r="C210">
         <v>620</v>
       </c>
-      <c r="D210" s="154">
-        <f>C210*$L$56</f>
+      <c r="D210" s="53">
+        <f t="shared" si="6"/>
         <v>201417.91199999998</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>630</v>
       </c>
-      <c r="B211" s="154">
-        <f>$L$60+A211*$L$54</f>
+      <c r="B211" s="53">
+        <f t="shared" si="5"/>
         <v>206015.49000000002</v>
       </c>
       <c r="C211">
         <v>630</v>
       </c>
-      <c r="D211" s="154">
-        <f>C211*$L$56</f>
+      <c r="D211" s="53">
+        <f t="shared" si="6"/>
         <v>204666.58799999999</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>640</v>
       </c>
-      <c r="B212" s="154">
-        <f>$L$60+A212*$L$54</f>
+      <c r="B212" s="53">
+        <f t="shared" ref="B212:B243" si="7">$L$60+A212*$L$54</f>
         <v>208722.72</v>
       </c>
       <c r="C212">
         <v>640</v>
       </c>
-      <c r="D212" s="154">
-        <f>C212*$L$56</f>
+      <c r="D212" s="53">
+        <f t="shared" ref="D212:D243" si="8">C212*$L$56</f>
         <v>207915.264</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>650</v>
       </c>
-      <c r="B213" s="154">
-        <f>$L$60+A213*$L$54</f>
+      <c r="B213" s="53">
+        <f t="shared" si="7"/>
         <v>211429.95</v>
       </c>
       <c r="C213">
         <v>650</v>
       </c>
-      <c r="D213" s="154">
-        <f>C213*$L$56</f>
+      <c r="D213" s="53">
+        <f t="shared" si="8"/>
         <v>211163.94</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>660</v>
       </c>
-      <c r="B214" s="154">
-        <f>$L$60+A214*$L$54</f>
+      <c r="B214" s="53">
+        <f t="shared" si="7"/>
         <v>214137.18000000002</v>
       </c>
       <c r="C214">
         <v>660</v>
       </c>
-      <c r="D214" s="154">
-        <f>C214*$L$56</f>
+      <c r="D214" s="53">
+        <f t="shared" si="8"/>
         <v>214412.61599999998</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>670</v>
       </c>
-      <c r="B215" s="154">
-        <f>$L$60+A215*$L$54</f>
+      <c r="B215" s="53">
+        <f t="shared" si="7"/>
         <v>216844.41</v>
       </c>
       <c r="C215">
         <v>670</v>
       </c>
-      <c r="D215" s="154">
-        <f>C215*$L$56</f>
+      <c r="D215" s="53">
+        <f t="shared" si="8"/>
         <v>217661.29199999999</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>680</v>
       </c>
-      <c r="B216" s="154">
-        <f>$L$60+A216*$L$54</f>
+      <c r="B216" s="53">
+        <f t="shared" si="7"/>
         <v>219551.64</v>
       </c>
       <c r="C216">
         <v>680</v>
       </c>
-      <c r="D216" s="154">
-        <f>C216*$L$56</f>
+      <c r="D216" s="53">
+        <f t="shared" si="8"/>
         <v>220909.96799999999</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>690</v>
       </c>
-      <c r="B217" s="154">
-        <f>$L$60+A217*$L$54</f>
+      <c r="B217" s="53">
+        <f t="shared" si="7"/>
         <v>222258.87</v>
       </c>
       <c r="C217">
         <v>690</v>
       </c>
-      <c r="D217" s="154">
-        <f>C217*$L$56</f>
+      <c r="D217" s="53">
+        <f t="shared" si="8"/>
         <v>224158.644</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>700</v>
       </c>
-      <c r="B218" s="154">
-        <f>$L$60+A218*$L$54</f>
+      <c r="B218" s="53">
+        <f t="shared" si="7"/>
         <v>224966.1</v>
       </c>
       <c r="C218">
         <v>700</v>
       </c>
-      <c r="D218" s="154">
-        <f>C218*$L$56</f>
+      <c r="D218" s="53">
+        <f t="shared" si="8"/>
         <v>227407.31999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>710</v>
       </c>
-      <c r="B219" s="154">
-        <f>$L$60+A219*$L$54</f>
+      <c r="B219" s="53">
+        <f t="shared" si="7"/>
         <v>227673.33000000002</v>
       </c>
       <c r="C219">
         <v>710</v>
       </c>
-      <c r="D219" s="154">
-        <f>C219*$L$56</f>
+      <c r="D219" s="53">
+        <f t="shared" si="8"/>
         <v>230655.99599999998</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>720</v>
       </c>
-      <c r="B220" s="154">
-        <f>$L$60+A220*$L$54</f>
+      <c r="B220" s="53">
+        <f t="shared" si="7"/>
         <v>230380.56</v>
       </c>
       <c r="C220">
         <v>720</v>
       </c>
-      <c r="D220" s="154">
-        <f>C220*$L$56</f>
+      <c r="D220" s="53">
+        <f t="shared" si="8"/>
         <v>233904.67199999999</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>730</v>
       </c>
-      <c r="B221" s="154">
-        <f>$L$60+A221*$L$54</f>
+      <c r="B221" s="53">
+        <f t="shared" si="7"/>
         <v>233087.79</v>
       </c>
       <c r="C221">
         <v>730</v>
       </c>
-      <c r="D221" s="154">
-        <f>C221*$L$56</f>
+      <c r="D221" s="53">
+        <f t="shared" si="8"/>
         <v>237153.348</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>740</v>
       </c>
-      <c r="B222" s="154">
-        <f>$L$60+A222*$L$54</f>
+      <c r="B222" s="53">
+        <f t="shared" si="7"/>
         <v>235795.02000000002</v>
       </c>
       <c r="C222">
         <v>740</v>
       </c>
-      <c r="D222" s="154">
-        <f>C222*$L$56</f>
+      <c r="D222" s="53">
+        <f t="shared" si="8"/>
         <v>240402.02399999998</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>750</v>
       </c>
-      <c r="B223" s="154">
-        <f>$L$60+A223*$L$54</f>
+      <c r="B223" s="53">
+        <f t="shared" si="7"/>
         <v>238502.25</v>
       </c>
       <c r="C223">
         <v>750</v>
       </c>
-      <c r="D223" s="154">
-        <f>C223*$L$56</f>
+      <c r="D223" s="53">
+        <f t="shared" si="8"/>
         <v>243650.69999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>760</v>
       </c>
-      <c r="B224" s="154">
-        <f>$L$60+A224*$L$54</f>
+      <c r="B224" s="53">
+        <f t="shared" si="7"/>
         <v>241209.48</v>
       </c>
       <c r="C224">
         <v>760</v>
       </c>
-      <c r="D224" s="154">
-        <f>C224*$L$56</f>
+      <c r="D224" s="53">
+        <f t="shared" si="8"/>
         <v>246899.37599999999</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>770</v>
       </c>
-      <c r="B225" s="154">
-        <f>$L$60+A225*$L$54</f>
+      <c r="B225" s="53">
+        <f t="shared" si="7"/>
         <v>243916.71000000002</v>
       </c>
       <c r="C225">
         <v>770</v>
       </c>
-      <c r="D225" s="154">
-        <f>C225*$L$56</f>
+      <c r="D225" s="53">
+        <f t="shared" si="8"/>
         <v>250148.052</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>780</v>
       </c>
-      <c r="B226" s="154">
-        <f>$L$60+A226*$L$54</f>
+      <c r="B226" s="53">
+        <f t="shared" si="7"/>
         <v>246623.94</v>
       </c>
       <c r="C226">
         <v>780</v>
       </c>
-      <c r="D226" s="154">
-        <f>C226*$L$56</f>
+      <c r="D226" s="53">
+        <f t="shared" si="8"/>
         <v>253396.72799999997</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>790</v>
       </c>
-      <c r="B227" s="154">
-        <f>$L$60+A227*$L$54</f>
+      <c r="B227" s="53">
+        <f t="shared" si="7"/>
         <v>249331.17</v>
       </c>
       <c r="C227">
         <v>790</v>
       </c>
-      <c r="D227" s="154">
-        <f>C227*$L$56</f>
+      <c r="D227" s="53">
+        <f t="shared" si="8"/>
         <v>256645.40399999998</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>800</v>
       </c>
-      <c r="B228" s="154">
-        <f>$L$60+A228*$L$54</f>
+      <c r="B228" s="53">
+        <f t="shared" si="7"/>
         <v>252038.40000000002</v>
       </c>
       <c r="C228">
         <v>800</v>
       </c>
-      <c r="D228" s="154">
-        <f>C228*$L$56</f>
+      <c r="D228" s="53">
+        <f t="shared" si="8"/>
         <v>259894.08</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>810</v>
       </c>
-      <c r="B229" s="154">
-        <f>$L$60+A229*$L$54</f>
+      <c r="B229" s="53">
+        <f t="shared" si="7"/>
         <v>254745.63</v>
       </c>
       <c r="C229">
         <v>810</v>
       </c>
-      <c r="D229" s="154">
-        <f>C229*$L$56</f>
+      <c r="D229" s="53">
+        <f t="shared" si="8"/>
         <v>263142.75599999999</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>820</v>
       </c>
-      <c r="B230" s="154">
-        <f>$L$60+A230*$L$54</f>
+      <c r="B230" s="53">
+        <f t="shared" si="7"/>
         <v>257452.86000000002</v>
       </c>
       <c r="C230">
         <v>820</v>
       </c>
-      <c r="D230" s="154">
-        <f>C230*$L$56</f>
+      <c r="D230" s="53">
+        <f t="shared" si="8"/>
         <v>266391.43199999997</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>830</v>
       </c>
-      <c r="B231" s="154">
-        <f>$L$60+A231*$L$54</f>
+      <c r="B231" s="53">
+        <f t="shared" si="7"/>
         <v>260160.09</v>
       </c>
       <c r="C231">
         <v>830</v>
       </c>
-      <c r="D231" s="154">
-        <f>C231*$L$56</f>
+      <c r="D231" s="53">
+        <f t="shared" si="8"/>
         <v>269640.10800000001</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>840</v>
       </c>
-      <c r="B232" s="154">
-        <f>$L$60+A232*$L$54</f>
+      <c r="B232" s="53">
+        <f t="shared" si="7"/>
         <v>262867.32</v>
       </c>
       <c r="C232">
         <v>840</v>
       </c>
-      <c r="D232" s="154">
-        <f>C232*$L$56</f>
+      <c r="D232" s="53">
+        <f t="shared" si="8"/>
         <v>272888.78399999999</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>850</v>
       </c>
-      <c r="B233" s="154">
-        <f>$L$60+A233*$L$54</f>
+      <c r="B233" s="53">
+        <f t="shared" si="7"/>
         <v>265574.55000000005</v>
       </c>
       <c r="C233">
         <v>850</v>
       </c>
-      <c r="D233" s="154">
-        <f>C233*$L$56</f>
+      <c r="D233" s="53">
+        <f t="shared" si="8"/>
         <v>276137.45999999996</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>860</v>
       </c>
-      <c r="B234" s="154">
-        <f>$L$60+A234*$L$54</f>
+      <c r="B234" s="53">
+        <f t="shared" si="7"/>
         <v>268281.78000000003</v>
       </c>
       <c r="C234">
         <v>860</v>
       </c>
-      <c r="D234" s="154">
-        <f>C234*$L$56</f>
+      <c r="D234" s="53">
+        <f t="shared" si="8"/>
         <v>279386.136</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>870</v>
       </c>
-      <c r="B235" s="154">
-        <f>$L$60+A235*$L$54</f>
+      <c r="B235" s="53">
+        <f t="shared" si="7"/>
         <v>270989.01</v>
       </c>
       <c r="C235">
         <v>870</v>
       </c>
-      <c r="D235" s="154">
-        <f>C235*$L$56</f>
+      <c r="D235" s="53">
+        <f t="shared" si="8"/>
         <v>282634.81199999998</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>880</v>
       </c>
-      <c r="B236" s="154">
-        <f>$L$60+A236*$L$54</f>
+      <c r="B236" s="53">
+        <f t="shared" si="7"/>
         <v>273696.24</v>
       </c>
       <c r="C236">
         <v>880</v>
       </c>
-      <c r="D236" s="154">
-        <f>C236*$L$56</f>
+      <c r="D236" s="53">
+        <f t="shared" si="8"/>
         <v>285883.48800000001</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>890</v>
       </c>
-      <c r="B237" s="154">
-        <f>$L$60+A237*$L$54</f>
+      <c r="B237" s="53">
+        <f t="shared" si="7"/>
         <v>276403.46999999997</v>
       </c>
       <c r="C237">
         <v>890</v>
       </c>
-      <c r="D237" s="154">
-        <f>C237*$L$56</f>
+      <c r="D237" s="53">
+        <f t="shared" si="8"/>
         <v>289132.16399999999</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>900</v>
       </c>
-      <c r="B238" s="154">
-        <f>$L$60+A238*$L$54</f>
+      <c r="B238" s="53">
+        <f t="shared" si="7"/>
         <v>279110.7</v>
       </c>
       <c r="C238">
         <v>900</v>
       </c>
-      <c r="D238" s="154">
-        <f>C238*$L$56</f>
+      <c r="D238" s="53">
+        <f t="shared" si="8"/>
         <v>292380.83999999997</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>910</v>
       </c>
-      <c r="B239" s="154">
-        <f>$L$60+A239*$L$54</f>
+      <c r="B239" s="53">
+        <f t="shared" si="7"/>
         <v>281817.93000000005</v>
       </c>
       <c r="C239">
         <v>910</v>
       </c>
-      <c r="D239" s="154">
-        <f>C239*$L$56</f>
+      <c r="D239" s="53">
+        <f t="shared" si="8"/>
         <v>295629.516</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>920</v>
       </c>
-      <c r="B240" s="154">
-        <f>$L$60+A240*$L$54</f>
+      <c r="B240" s="53">
+        <f t="shared" si="7"/>
         <v>284525.16000000003</v>
       </c>
       <c r="C240">
         <v>920</v>
       </c>
-      <c r="D240" s="154">
-        <f>C240*$L$56</f>
+      <c r="D240" s="53">
+        <f t="shared" si="8"/>
         <v>298878.19199999998</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>930</v>
       </c>
-      <c r="B241" s="154">
-        <f>$L$60+A241*$L$54</f>
+      <c r="B241" s="53">
+        <f t="shared" si="7"/>
         <v>287232.39</v>
       </c>
       <c r="C241">
         <v>930</v>
       </c>
-      <c r="D241" s="154">
-        <f>C241*$L$56</f>
+      <c r="D241" s="53">
+        <f t="shared" si="8"/>
         <v>302126.86799999996</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>940</v>
       </c>
-      <c r="B242" s="154">
-        <f>$L$60+A242*$L$54</f>
+      <c r="B242" s="53">
+        <f t="shared" si="7"/>
         <v>289939.62</v>
       </c>
       <c r="C242">
         <v>940</v>
       </c>
-      <c r="D242" s="154">
-        <f>C242*$L$56</f>
+      <c r="D242" s="53">
+        <f t="shared" si="8"/>
         <v>305375.54399999999</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>950</v>
       </c>
-      <c r="B243" s="154">
-        <f>$L$60+A243*$L$54</f>
+      <c r="B243" s="53">
+        <f t="shared" si="7"/>
         <v>292646.84999999998</v>
       </c>
       <c r="C243">
         <v>950</v>
       </c>
-      <c r="D243" s="154">
-        <f>C243*$L$56</f>
+      <c r="D243" s="53">
+        <f t="shared" si="8"/>
         <v>308624.21999999997</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>960</v>
       </c>
-      <c r="B244" s="154">
-        <f>$L$60+A244*$L$54</f>
+      <c r="B244" s="53">
+        <f t="shared" ref="B244:B275" si="9">$L$60+A244*$L$54</f>
         <v>295354.08</v>
       </c>
       <c r="C244">
         <v>960</v>
       </c>
-      <c r="D244" s="154">
-        <f>C244*$L$56</f>
+      <c r="D244" s="53">
+        <f t="shared" ref="D244:D275" si="10">C244*$L$56</f>
         <v>311872.89600000001</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>970</v>
       </c>
-      <c r="B245" s="154">
-        <f>$L$60+A245*$L$54</f>
+      <c r="B245" s="53">
+        <f t="shared" si="9"/>
         <v>298061.31</v>
       </c>
       <c r="C245">
         <v>970</v>
       </c>
-      <c r="D245" s="154">
-        <f>C245*$L$56</f>
+      <c r="D245" s="53">
+        <f t="shared" si="10"/>
         <v>315121.57199999999</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>980</v>
       </c>
-      <c r="B246" s="154">
-        <f>$L$60+A246*$L$54</f>
+      <c r="B246" s="53">
+        <f t="shared" si="9"/>
         <v>300768.54000000004</v>
       </c>
       <c r="C246">
         <v>980</v>
       </c>
-      <c r="D246" s="154">
-        <f>C246*$L$56</f>
+      <c r="D246" s="53">
+        <f t="shared" si="10"/>
         <v>318370.24799999996</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>990</v>
       </c>
-      <c r="B247" s="154">
-        <f>$L$60+A247*$L$54</f>
+      <c r="B247" s="53">
+        <f t="shared" si="9"/>
         <v>303475.77</v>
       </c>
       <c r="C247">
         <v>990</v>
       </c>
-      <c r="D247" s="154">
-        <f>C247*$L$56</f>
+      <c r="D247" s="53">
+        <f t="shared" si="10"/>
         <v>321618.924</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1000</v>
       </c>
-      <c r="B248" s="154">
-        <f>$L$60+A248*$L$54</f>
+      <c r="B248" s="53">
+        <f t="shared" si="9"/>
         <v>306183</v>
       </c>
       <c r="C248">
         <v>1000</v>
       </c>
-      <c r="D248" s="154">
-        <f>C248*$L$56</f>
+      <c r="D248" s="53">
+        <f t="shared" si="10"/>
         <v>324867.59999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="G59:M59"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="E117:F117"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="L56:M57"/>
+    <mergeCell ref="G62:K63"/>
+    <mergeCell ref="L62:M63"/>
+    <mergeCell ref="E117:F118"/>
+    <mergeCell ref="G56:K57"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A117:D118"/>
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:J3"/>
@@ -7419,6 +7471,50 @@
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
     <mergeCell ref="A55:A69"/>
     <mergeCell ref="C55:C69"/>
     <mergeCell ref="E55:E69"/>
@@ -7430,13 +7526,21 @@
     <mergeCell ref="C79:C83"/>
     <mergeCell ref="A86:A87"/>
     <mergeCell ref="A88:A89"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="G59:M59"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L61:M61"/>
     <mergeCell ref="A95:A97"/>
     <mergeCell ref="C95:C97"/>
     <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/form/WIR-Teil.xlsx
+++ b/form/WIR-Teil.xlsx
@@ -128,9 +128,6 @@
     <t>Gesamtarbeitszeit</t>
   </si>
   <si>
-    <t>Stundenlohn (Techniker)</t>
-  </si>
-  <si>
     <t>Entwicklungskosten</t>
   </si>
   <si>
@@ -386,13 +383,16 @@
     <t>China</t>
   </si>
   <si>
-    <t>Variablekosten:</t>
-  </si>
-  <si>
     <t>Verkaufspreis / Stück :</t>
   </si>
   <si>
     <t>Break-Even-Point :</t>
+  </si>
+  <si>
+    <t>Stundenlohn</t>
+  </si>
+  <si>
+    <t>variable Kosten:</t>
   </si>
 </sst>
 </file>
@@ -979,353 +979,353 @@
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1701,307 +1701,307 @@
                 <c:formatCode>"€"\ #\ ##0.00</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>35460</c:v>
+                  <c:v>36510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38167.230000000003</c:v>
+                  <c:v>39217.230000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40874.46</c:v>
+                  <c:v>41924.46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43581.69</c:v>
+                  <c:v>44631.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46288.92</c:v>
+                  <c:v>47338.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48996.15</c:v>
+                  <c:v>50046.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51703.380000000005</c:v>
+                  <c:v>52753.380000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54410.61</c:v>
+                  <c:v>55460.61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57117.84</c:v>
+                  <c:v>58167.839999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59825.07</c:v>
+                  <c:v>60875.07</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62532.3</c:v>
+                  <c:v>63582.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65239.53</c:v>
+                  <c:v>66289.53</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67946.760000000009</c:v>
+                  <c:v>68996.760000000009</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70653.990000000005</c:v>
+                  <c:v>71703.990000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>73361.22</c:v>
+                  <c:v>74411.22</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>76068.450000000012</c:v>
+                  <c:v>77118.450000000012</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78775.679999999993</c:v>
+                  <c:v>79825.679999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>81482.91</c:v>
+                  <c:v>82532.91</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84190.14</c:v>
+                  <c:v>85240.14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>86897.37</c:v>
+                  <c:v>87947.37</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>89604.6</c:v>
+                  <c:v>90654.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>92311.83</c:v>
+                  <c:v>93361.83</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>95019.06</c:v>
+                  <c:v>96069.06</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>97726.290000000008</c:v>
+                  <c:v>98776.290000000008</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100433.52</c:v>
+                  <c:v>101483.52</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>103140.75</c:v>
+                  <c:v>104190.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>105847.98000000001</c:v>
+                  <c:v>106897.98000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>108555.21</c:v>
+                  <c:v>109605.21</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>111262.44</c:v>
+                  <c:v>112312.44</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>113969.67</c:v>
+                  <c:v>115019.67</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>116676.90000000001</c:v>
+                  <c:v>117726.90000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>119384.13</c:v>
+                  <c:v>120434.13</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>122091.36</c:v>
+                  <c:v>123141.36</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>124798.59000000001</c:v>
+                  <c:v>125848.59000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>127505.82</c:v>
+                  <c:v>128555.82</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>130213.05</c:v>
+                  <c:v>131263.04999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>132920.28</c:v>
+                  <c:v>133970.28</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>135627.51</c:v>
+                  <c:v>136677.51</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>138334.74</c:v>
+                  <c:v>139384.74</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>141041.97</c:v>
+                  <c:v>142091.97</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>143749.20000000001</c:v>
+                  <c:v>144799.20000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>146456.43</c:v>
+                  <c:v>147506.43</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>149163.66</c:v>
+                  <c:v>150213.66</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>151870.89000000001</c:v>
+                  <c:v>152920.89000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>154578.12</c:v>
+                  <c:v>155628.12</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>157285.35</c:v>
+                  <c:v>158335.35</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>159992.58000000002</c:v>
+                  <c:v>161042.58000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>162699.81</c:v>
+                  <c:v>163749.81</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>165407.04000000001</c:v>
+                  <c:v>166457.04</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>168114.27000000002</c:v>
+                  <c:v>169164.27000000002</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>170821.5</c:v>
+                  <c:v>171871.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>173528.73</c:v>
+                  <c:v>174578.73</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>176235.96000000002</c:v>
+                  <c:v>177285.96000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>178943.19</c:v>
+                  <c:v>179993.19</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>181650.42</c:v>
+                  <c:v>182700.42</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>184357.65</c:v>
+                  <c:v>185407.65</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>187064.88</c:v>
+                  <c:v>188114.88</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>189772.11000000002</c:v>
+                  <c:v>190822.11000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>192479.34</c:v>
+                  <c:v>193529.34</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>195186.57</c:v>
+                  <c:v>196236.57</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>197893.80000000002</c:v>
+                  <c:v>198943.80000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>200601.03</c:v>
+                  <c:v>201651.03</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>203308.26</c:v>
+                  <c:v>204358.26</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>206015.49000000002</c:v>
+                  <c:v>207065.49000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>208722.72</c:v>
+                  <c:v>209772.72</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>211429.95</c:v>
+                  <c:v>212479.95</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>214137.18000000002</c:v>
+                  <c:v>215187.18000000002</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>216844.41</c:v>
+                  <c:v>217894.41</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>219551.64</c:v>
+                  <c:v>220601.64</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>222258.87</c:v>
+                  <c:v>223308.87</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>224966.1</c:v>
+                  <c:v>226016.1</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>227673.33000000002</c:v>
+                  <c:v>228723.33000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>230380.56</c:v>
+                  <c:v>231430.56</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>233087.79</c:v>
+                  <c:v>234137.79</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>235795.02000000002</c:v>
+                  <c:v>236845.02000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>238502.25</c:v>
+                  <c:v>239552.25</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>241209.48</c:v>
+                  <c:v>242259.48</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>243916.71000000002</c:v>
+                  <c:v>244966.71000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>246623.94</c:v>
+                  <c:v>247673.94</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>249331.17</c:v>
+                  <c:v>250381.17</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>252038.40000000002</c:v>
+                  <c:v>253088.40000000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>254745.63</c:v>
+                  <c:v>255795.63</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>257452.86000000002</c:v>
+                  <c:v>258502.86000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>260160.09</c:v>
+                  <c:v>261210.09</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>262867.32</c:v>
+                  <c:v>263917.32</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>265574.55000000005</c:v>
+                  <c:v>266624.55000000005</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>268281.78000000003</c:v>
+                  <c:v>269331.78000000003</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>270989.01</c:v>
+                  <c:v>272039.01</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>273696.24</c:v>
+                  <c:v>274746.23999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>276403.46999999997</c:v>
+                  <c:v>277453.46999999997</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>279110.7</c:v>
+                  <c:v>280160.7</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>281817.93000000005</c:v>
+                  <c:v>282867.93000000005</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>284525.16000000003</c:v>
+                  <c:v>285575.16000000003</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>287232.39</c:v>
+                  <c:v>288282.39</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>289939.62</c:v>
+                  <c:v>290989.62</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>292646.84999999998</c:v>
+                  <c:v>293696.84999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>295354.08</c:v>
+                  <c:v>296404.08</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>298061.31</c:v>
+                  <c:v>299111.31</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>300768.54000000004</c:v>
+                  <c:v>301818.54000000004</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>303475.77</c:v>
+                  <c:v>304525.77</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>306183</c:v>
+                  <c:v>307233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3784,8 +3784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M248"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3802,422 +3802,422 @@
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="159" t="s">
+      <c r="G1" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="100">
+        <v>230</v>
+      </c>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="85"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="103">
+        <v>85</v>
+      </c>
+      <c r="L3" s="104"/>
+      <c r="M3" s="105"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="85"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="103">
+        <v>67</v>
+      </c>
+      <c r="L4" s="104"/>
+      <c r="M4" s="105"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="85"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="106">
+        <v>101</v>
+      </c>
+      <c r="L5" s="107"/>
+      <c r="M5" s="108"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="85"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="109">
+        <f>SUM(K2:M5)</f>
+        <v>483</v>
+      </c>
+      <c r="L6" s="110"/>
+      <c r="M6" s="111"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="85"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="112">
+        <v>70</v>
+      </c>
+      <c r="L7" s="113"/>
+      <c r="M7" s="114"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="85"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="115">
+        <f>K6*K7</f>
+        <v>33810</v>
+      </c>
+      <c r="L8" s="116"/>
+      <c r="M8" s="117"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="85"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="85"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="85"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="118" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="120"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="161"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="153" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="156">
-        <v>230</v>
-      </c>
-      <c r="L2" s="157"/>
-      <c r="M2" s="158"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="123"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="101">
-        <v>85</v>
-      </c>
-      <c r="L3" s="102"/>
-      <c r="M3" s="103"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="123"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="101">
-        <v>67</v>
-      </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="103"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="123"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="116">
-        <v>86</v>
-      </c>
-      <c r="L5" s="117"/>
-      <c r="M5" s="118"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="123"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="126" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="119">
-        <f>SUM(K2:M5)</f>
-        <v>468</v>
-      </c>
-      <c r="L6" s="120"/>
-      <c r="M6" s="121"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="123"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="113">
-        <v>70</v>
-      </c>
-      <c r="L7" s="114"/>
-      <c r="M7" s="115"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71">
-        <f>K6*K7</f>
-        <v>32760</v>
-      </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="73"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="123"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="123"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="123"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="165" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="167"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="123"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="153" t="s">
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="121">
+        <v>20</v>
+      </c>
+      <c r="L14" s="122"/>
+      <c r="M14" s="123"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="85"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="162">
-        <v>20</v>
-      </c>
-      <c r="L14" s="163"/>
-      <c r="M14" s="164"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="123"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="74" t="s">
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="124">
+        <v>5</v>
+      </c>
+      <c r="L15" s="125"/>
+      <c r="M15" s="126"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="85"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="104">
-        <v>5</v>
-      </c>
-      <c r="L15" s="105"/>
-      <c r="M15" s="106"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="123"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="86" t="s">
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="127">
+        <v>9</v>
+      </c>
+      <c r="L16" s="128"/>
+      <c r="M16" s="129"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="85"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="107">
-        <v>9</v>
-      </c>
-      <c r="L16" s="108"/>
-      <c r="M16" s="109"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="123"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="92" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="110">
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="133">
         <f>K16*K15*K14</f>
         <v>900</v>
       </c>
-      <c r="L17" s="111"/>
-      <c r="M17" s="112"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="135"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="123"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="123"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="124"/>
+      <c r="E18" s="86"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="103"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="105"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="123"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="21"/>
-      <c r="C19" s="123"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="15"/>
-      <c r="E19" s="125"/>
+      <c r="E19" s="87"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="74" t="s">
+      <c r="G19" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="136">
+        <v>25</v>
+      </c>
+      <c r="L19" s="137"/>
+      <c r="M19" s="138"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="85"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="83">
-        <v>25</v>
-      </c>
-      <c r="L19" s="84"/>
-      <c r="M19" s="85"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="123"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="74" t="s">
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="136">
+        <v>85</v>
+      </c>
+      <c r="L20" s="137"/>
+      <c r="M20" s="138"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="85"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="83">
-        <v>85</v>
-      </c>
-      <c r="L20" s="84"/>
-      <c r="M20" s="85"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="123"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="74" t="s">
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="136">
+        <v>50</v>
+      </c>
+      <c r="L21" s="137"/>
+      <c r="M21" s="138"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="85"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="83">
-        <v>50</v>
-      </c>
-      <c r="L21" s="84"/>
-      <c r="M21" s="85"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="123"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="86" t="s">
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="139">
+        <v>40</v>
+      </c>
+      <c r="L22" s="140"/>
+      <c r="M22" s="141"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="85"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="89">
-        <v>40</v>
-      </c>
-      <c r="L22" s="90"/>
-      <c r="M22" s="91"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="123"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95">
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="132"/>
+      <c r="K23" s="142">
         <f>(K19+K20+K21+K22)*K16</f>
         <v>1800</v>
       </c>
-      <c r="L23" s="96"/>
-      <c r="M23" s="97"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="144"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="123"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="123"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="125"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="100"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="147"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="123"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="125"/>
+      <c r="E25" s="87"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="71">
+      <c r="G25" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="115">
         <f>K17+K23</f>
         <v>2700</v>
       </c>
-      <c r="L25" s="72"/>
-      <c r="M25" s="73"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="117"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
@@ -4250,9 +4250,9 @@
       <c r="M27" s="59"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="122"/>
+      <c r="A28" s="84"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="123"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="23"/>
       <c r="E28" s="24"/>
       <c r="F28" s="22"/>
@@ -4265,9 +4265,9 @@
       <c r="M28" s="7"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="122"/>
+      <c r="A29" s="84"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="123"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="23"/>
       <c r="E29" s="24"/>
       <c r="F29" s="22"/>
@@ -4280,61 +4280,61 @@
       <c r="M29" s="7"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="122"/>
+      <c r="A30" s="84"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="123"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="23"/>
       <c r="E30" s="24"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="165" t="s">
-        <v>47</v>
-      </c>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="166"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="167"/>
+      <c r="G30" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="120"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="122"/>
+      <c r="A31" s="84"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="123"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="23"/>
       <c r="E31" s="24"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="153" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="154"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="168">
+      <c r="G31" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="148">
         <f>K8</f>
-        <v>32760</v>
-      </c>
-      <c r="L31" s="169"/>
-      <c r="M31" s="170"/>
+        <v>33810</v>
+      </c>
+      <c r="L31" s="149"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="122"/>
+      <c r="A32" s="84"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="123"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="23"/>
       <c r="E32" s="24"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="80">
+      <c r="G32" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="151">
         <f>K25</f>
         <v>2700</v>
       </c>
-      <c r="L32" s="81"/>
-      <c r="M32" s="82"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="153"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
@@ -4343,18 +4343,18 @@
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="71">
+      <c r="G33" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="115">
         <f>K31+K32</f>
-        <v>35460</v>
-      </c>
-      <c r="L33" s="72"/>
-      <c r="M33" s="73"/>
+        <v>36510</v>
+      </c>
+      <c r="L33" s="116"/>
+      <c r="M33" s="117"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
@@ -4504,378 +4504,378 @@
       <c r="B52" s="34"/>
     </row>
     <row r="53" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="165" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" s="174"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
-      <c r="E53" s="174"/>
-      <c r="F53" s="175"/>
-      <c r="G53" s="172" t="s">
-        <v>111</v>
-      </c>
-      <c r="H53" s="172"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="172"/>
-      <c r="K53" s="172"/>
-      <c r="L53" s="172"/>
-      <c r="M53" s="172"/>
+      <c r="A53" s="118" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="154"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="168" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" s="168"/>
+      <c r="I53" s="168"/>
+      <c r="J53" s="168"/>
+      <c r="K53" s="168"/>
+      <c r="L53" s="168"/>
+      <c r="M53" s="168"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="150" t="s">
+      <c r="A54" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="173" t="s">
+      <c r="B54" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="150" t="s">
+      <c r="C54" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="150" t="s">
+      <c r="D54" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="150" t="s">
+      <c r="E54" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="150" t="s">
+      <c r="F54" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G54" s="171" t="str">
+      <c r="G54" s="170" t="str">
         <f>A117</f>
-        <v>Variablekosten:</v>
-      </c>
-      <c r="H54" s="171"/>
-      <c r="I54" s="171"/>
-      <c r="J54" s="171"/>
-      <c r="K54" s="171"/>
-      <c r="L54" s="61">
+        <v>variable Kosten:</v>
+      </c>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="170"/>
+      <c r="K54" s="170"/>
+      <c r="L54" s="169">
         <f>E117</f>
         <v>270.72300000000001</v>
       </c>
-      <c r="M54" s="61"/>
+      <c r="M54" s="169"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="129" t="s">
+      <c r="A55" s="158" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="35">
         <v>0.68</v>
       </c>
-      <c r="C55" s="129" t="s">
+      <c r="C55" s="158" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="1">
         <v>4</v>
       </c>
-      <c r="E55" s="131">
+      <c r="E55" s="159">
         <v>0.10299999999999999</v>
       </c>
       <c r="F55" s="26">
         <f>D55*$E$55</f>
         <v>0.41199999999999998</v>
       </c>
-      <c r="G55" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="65">
+      <c r="G55" s="171" t="s">
+        <v>111</v>
+      </c>
+      <c r="H55" s="171"/>
+      <c r="I55" s="171"/>
+      <c r="J55" s="171"/>
+      <c r="K55" s="171"/>
+      <c r="L55" s="172">
         <v>20</v>
       </c>
-      <c r="M55" s="65"/>
+      <c r="M55" s="172"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="129"/>
+      <c r="A56" s="158"/>
       <c r="B56" s="35">
         <v>1</v>
       </c>
-      <c r="C56" s="129"/>
+      <c r="C56" s="158"/>
       <c r="D56" s="1">
         <v>4</v>
       </c>
-      <c r="E56" s="131"/>
+      <c r="E56" s="159"/>
       <c r="F56" s="26">
         <f t="shared" ref="F56:F69" si="0">D56*$E$55</f>
         <v>0.41199999999999998</v>
       </c>
-      <c r="G56" s="144" t="s">
-        <v>121</v>
-      </c>
-      <c r="H56" s="144"/>
-      <c r="I56" s="144"/>
-      <c r="J56" s="144"/>
-      <c r="K56" s="144"/>
-      <c r="L56" s="148">
+      <c r="G56" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="62">
         <f>L54*(1+L55/100)</f>
         <v>324.86759999999998</v>
       </c>
-      <c r="M56" s="148"/>
+      <c r="M56" s="62"/>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="129"/>
+      <c r="A57" s="158"/>
       <c r="B57" s="35">
         <v>10</v>
       </c>
-      <c r="C57" s="129"/>
+      <c r="C57" s="158"/>
       <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="131"/>
+      <c r="E57" s="159"/>
       <c r="F57" s="26">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="G57" s="145"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="145"/>
-      <c r="J57" s="145"/>
-      <c r="K57" s="145"/>
-      <c r="L57" s="149"/>
-      <c r="M57" s="149"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="63"/>
+      <c r="M57" s="63"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="129"/>
+      <c r="A58" s="158"/>
       <c r="B58" s="35">
         <v>100</v>
       </c>
-      <c r="C58" s="129"/>
+      <c r="C58" s="158"/>
       <c r="D58" s="1">
         <v>6</v>
       </c>
-      <c r="E58" s="131"/>
+      <c r="E58" s="159"/>
       <c r="F58" s="26">
         <f t="shared" si="0"/>
         <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="129"/>
+      <c r="A59" s="158"/>
       <c r="B59" s="35">
         <v>330</v>
       </c>
-      <c r="C59" s="129"/>
+      <c r="C59" s="158"/>
       <c r="D59" s="1">
         <v>1</v>
       </c>
-      <c r="E59" s="131"/>
+      <c r="E59" s="159"/>
       <c r="F59" s="26">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="G59" s="172" t="s">
-        <v>108</v>
-      </c>
-      <c r="H59" s="172"/>
-      <c r="I59" s="172"/>
-      <c r="J59" s="172"/>
-      <c r="K59" s="172"/>
-      <c r="L59" s="172"/>
-      <c r="M59" s="172"/>
+      <c r="G59" s="168" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="168"/>
+      <c r="I59" s="168"/>
+      <c r="J59" s="168"/>
+      <c r="K59" s="168"/>
+      <c r="L59" s="168"/>
+      <c r="M59" s="168"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="129"/>
+      <c r="A60" s="158"/>
       <c r="B60" s="35">
         <v>560</v>
       </c>
-      <c r="C60" s="129"/>
+      <c r="C60" s="158"/>
       <c r="D60" s="1">
         <v>1</v>
       </c>
-      <c r="E60" s="131"/>
+      <c r="E60" s="159"/>
       <c r="F60" s="26">
         <f t="shared" si="0"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="G60" s="171" t="str">
+      <c r="G60" s="170" t="str">
         <f>G33</f>
         <v>Fixkosten</v>
       </c>
-      <c r="H60" s="171"/>
-      <c r="I60" s="171"/>
-      <c r="J60" s="171"/>
-      <c r="K60" s="171"/>
-      <c r="L60" s="168">
+      <c r="H60" s="170"/>
+      <c r="I60" s="170"/>
+      <c r="J60" s="170"/>
+      <c r="K60" s="170"/>
+      <c r="L60" s="148">
         <f>K33</f>
-        <v>35460</v>
-      </c>
-      <c r="M60" s="170"/>
+        <v>36510</v>
+      </c>
+      <c r="M60" s="150"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="129"/>
+      <c r="A61" s="158"/>
       <c r="B61" s="35">
         <v>820</v>
       </c>
-      <c r="C61" s="129"/>
+      <c r="C61" s="158"/>
       <c r="D61" s="1">
         <v>2</v>
       </c>
-      <c r="E61" s="131"/>
+      <c r="E61" s="159"/>
       <c r="F61" s="26">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="G61" s="62" t="str">
+      <c r="G61" s="171" t="str">
         <f>G56</f>
         <v>Verkaufspreis / Stück :</v>
       </c>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="63">
+      <c r="H61" s="171"/>
+      <c r="I61" s="171"/>
+      <c r="J61" s="171"/>
+      <c r="K61" s="171"/>
+      <c r="L61" s="174">
         <f>L56</f>
         <v>324.86759999999998</v>
       </c>
-      <c r="M61" s="64"/>
+      <c r="M61" s="175"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="129"/>
+      <c r="A62" s="158"/>
       <c r="B62" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="129"/>
+      <c r="C62" s="158"/>
       <c r="D62" s="1">
         <v>2</v>
       </c>
-      <c r="E62" s="131"/>
+      <c r="E62" s="159"/>
       <c r="F62" s="26">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="G62" s="144" t="s">
-        <v>122</v>
-      </c>
-      <c r="H62" s="144"/>
-      <c r="I62" s="144"/>
-      <c r="J62" s="144"/>
-      <c r="K62" s="144"/>
-      <c r="L62" s="151">
+      <c r="G62" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="66">
         <f>L60/(L61-L54)</f>
-        <v>654.91295530856303</v>
-      </c>
-      <c r="M62" s="151"/>
+        <v>674.30547090568632</v>
+      </c>
+      <c r="M62" s="66"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="129"/>
+      <c r="A63" s="158"/>
       <c r="B63" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="129"/>
+        <v>59</v>
+      </c>
+      <c r="C63" s="158"/>
       <c r="D63" s="1">
         <v>2</v>
       </c>
-      <c r="E63" s="131"/>
+      <c r="E63" s="159"/>
       <c r="F63" s="26">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
-      <c r="G63" s="145"/>
-      <c r="H63" s="145"/>
-      <c r="I63" s="145"/>
-      <c r="J63" s="145"/>
-      <c r="K63" s="145"/>
-      <c r="L63" s="152"/>
-      <c r="M63" s="152"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="129"/>
+      <c r="A64" s="158"/>
       <c r="B64" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="129"/>
+      <c r="C64" s="158"/>
       <c r="D64" s="1">
         <v>7</v>
       </c>
-      <c r="E64" s="131"/>
+      <c r="E64" s="159"/>
       <c r="F64" s="26">
         <f t="shared" si="0"/>
         <v>0.72099999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="129"/>
+      <c r="A65" s="158"/>
       <c r="B65" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="129"/>
+      <c r="C65" s="158"/>
       <c r="D65" s="1">
         <v>8</v>
       </c>
-      <c r="E65" s="131"/>
+      <c r="E65" s="159"/>
       <c r="F65" s="26">
         <f t="shared" si="0"/>
         <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="129"/>
+      <c r="A66" s="158"/>
       <c r="B66" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="129"/>
+      <c r="C66" s="158"/>
       <c r="D66" s="1">
         <v>7</v>
       </c>
-      <c r="E66" s="131"/>
+      <c r="E66" s="159"/>
       <c r="F66" s="26">
         <f t="shared" si="0"/>
         <v>0.72099999999999997</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="129"/>
+      <c r="A67" s="158"/>
       <c r="B67" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="129"/>
+      <c r="C67" s="158"/>
       <c r="D67" s="1">
         <v>16</v>
       </c>
-      <c r="E67" s="131"/>
+      <c r="E67" s="159"/>
       <c r="F67" s="26">
         <f t="shared" si="0"/>
         <v>1.6479999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="129"/>
+      <c r="A68" s="158"/>
       <c r="B68" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C68" s="129"/>
+      <c r="C68" s="158"/>
       <c r="D68" s="1">
         <v>2</v>
       </c>
-      <c r="E68" s="131"/>
+      <c r="E68" s="159"/>
       <c r="F68" s="26">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="130"/>
+      <c r="A69" s="71"/>
       <c r="B69" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="129"/>
+      <c r="C69" s="158"/>
       <c r="D69" s="1">
         <v>2</v>
       </c>
-      <c r="E69" s="131"/>
+      <c r="E69" s="159"/>
       <c r="F69" s="26">
         <f t="shared" si="0"/>
         <v>0.20599999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="132" t="s">
-        <v>52</v>
+      <c r="A70" s="160" t="s">
+        <v>51</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" s="14" t="s">
         <v>14</v>
@@ -4892,9 +4892,9 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="133"/>
+      <c r="A71" s="161"/>
       <c r="B71" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>14</v>
@@ -4911,19 +4911,19 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="134" t="s">
+      <c r="A72" s="70" t="s">
         <v>22</v>
       </c>
       <c r="B72" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="129" t="s">
+      <c r="C72" s="158" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="1">
         <v>2</v>
       </c>
-      <c r="E72" s="135">
+      <c r="E72" s="162">
         <v>0.14000000000000001</v>
       </c>
       <c r="F72" s="26">
@@ -4932,103 +4932,103 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="129"/>
+      <c r="A73" s="158"/>
       <c r="B73" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="129"/>
+      <c r="C73" s="158"/>
       <c r="D73" s="1">
         <v>6</v>
       </c>
-      <c r="E73" s="135"/>
+      <c r="E73" s="162"/>
       <c r="F73" s="26">
         <f t="shared" ref="F73:F78" si="2">D73*$E$72</f>
         <v>0.84000000000000008</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="129"/>
+      <c r="A74" s="158"/>
       <c r="B74" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="129"/>
+      <c r="C74" s="158"/>
       <c r="D74" s="1">
         <v>6</v>
       </c>
-      <c r="E74" s="135"/>
+      <c r="E74" s="162"/>
       <c r="F74" s="26">
         <f t="shared" si="2"/>
         <v>0.84000000000000008</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="129"/>
+      <c r="A75" s="158"/>
       <c r="B75" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="129"/>
+      <c r="C75" s="158"/>
       <c r="D75" s="1">
         <v>15</v>
       </c>
-      <c r="E75" s="135"/>
+      <c r="E75" s="162"/>
       <c r="F75" s="26">
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="129"/>
+      <c r="A76" s="158"/>
       <c r="B76" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="129"/>
+      <c r="C76" s="158"/>
       <c r="D76" s="1">
         <v>4</v>
       </c>
-      <c r="E76" s="135"/>
+      <c r="E76" s="162"/>
       <c r="F76" s="26">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="129"/>
+      <c r="A77" s="158"/>
       <c r="B77" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="129"/>
+      <c r="C77" s="158"/>
       <c r="D77" s="1">
         <v>4</v>
       </c>
-      <c r="E77" s="135"/>
+      <c r="E77" s="162"/>
       <c r="F77" s="26">
         <f t="shared" si="2"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="130"/>
+      <c r="A78" s="71"/>
       <c r="B78" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="130"/>
+      <c r="C78" s="71"/>
       <c r="D78" s="2">
         <v>1</v>
       </c>
-      <c r="E78" s="136"/>
+      <c r="E78" s="163"/>
       <c r="F78" s="28">
         <f t="shared" si="2"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="137" t="s">
+      <c r="A79" s="164" t="s">
         <v>28</v>
       </c>
       <c r="B79" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="134" t="s">
+      <c r="C79" s="70" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="3">
@@ -5043,11 +5043,11 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="138"/>
+      <c r="A80" s="165"/>
       <c r="B80" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C80" s="129"/>
+      <c r="C80" s="158"/>
       <c r="D80" s="4">
         <v>2</v>
       </c>
@@ -5060,11 +5060,11 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="138"/>
+      <c r="A81" s="165"/>
       <c r="B81" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="129"/>
+      <c r="C81" s="158"/>
       <c r="D81" s="4">
         <v>29</v>
       </c>
@@ -5077,11 +5077,11 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="138"/>
+      <c r="A82" s="165"/>
       <c r="B82" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="129"/>
+      <c r="C82" s="158"/>
       <c r="D82" s="4">
         <v>2</v>
       </c>
@@ -5094,11 +5094,11 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="139"/>
+      <c r="A83" s="166"/>
       <c r="B83" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C83" s="130"/>
+      <c r="C83" s="71"/>
       <c r="D83" s="5">
         <v>4</v>
       </c>
@@ -5112,10 +5112,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="36" t="s">
         <v>48</v>
-      </c>
-      <c r="B84" s="36" t="s">
-        <v>49</v>
       </c>
       <c r="C84" s="14" t="s">
         <v>14</v>
@@ -5133,10 +5133,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C85" s="14" t="s">
         <v>14</v>
@@ -5153,13 +5153,13 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="140" t="s">
+      <c r="A86" s="167" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B86" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="134" t="s">
+      <c r="C86" s="70" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="11">
@@ -5174,11 +5174,11 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="140"/>
+      <c r="A87" s="167"/>
       <c r="B87" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C87" s="130"/>
+        <v>50</v>
+      </c>
+      <c r="C87" s="71"/>
       <c r="D87" s="11">
         <v>4</v>
       </c>
@@ -5191,13 +5191,13 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="140" t="s">
-        <v>66</v>
+      <c r="A88" s="167" t="s">
+        <v>65</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C88" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="70" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="11">
@@ -5212,11 +5212,11 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="140"/>
+      <c r="A89" s="167"/>
       <c r="B89" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C89" s="130" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="71" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="11">
@@ -5232,10 +5232,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C90" s="14" t="s">
         <v>14</v>
@@ -5253,10 +5253,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C91" s="14" t="s">
         <v>14</v>
@@ -5274,10 +5274,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>14</v>
@@ -5295,10 +5295,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C93" s="14" t="s">
         <v>14</v>
@@ -5316,10 +5316,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" s="14" t="s">
         <v>14</v>
@@ -5336,13 +5336,13 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="140" t="s">
-        <v>70</v>
+      <c r="A95" s="167" t="s">
+        <v>69</v>
       </c>
       <c r="B95" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C95" s="140" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="167" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="11">
@@ -5357,11 +5357,11 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="140"/>
+      <c r="A96" s="167"/>
       <c r="B96" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C96" s="140"/>
+        <v>49</v>
+      </c>
+      <c r="C96" s="167"/>
       <c r="D96" s="11">
         <v>6</v>
       </c>
@@ -5374,11 +5374,11 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="140"/>
+      <c r="A97" s="167"/>
       <c r="B97" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C97" s="140"/>
+        <v>60</v>
+      </c>
+      <c r="C97" s="167"/>
       <c r="D97" s="11">
         <v>2</v>
       </c>
@@ -5392,10 +5392,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B98" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C98" s="14" t="s">
         <v>14</v>
@@ -5413,13 +5413,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B99" s="32" t="s">
-        <v>79</v>
-      </c>
       <c r="C99" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D99" s="11">
         <f>1</f>
@@ -5434,13 +5434,13 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="66" t="s">
-        <v>80</v>
+      <c r="A100" s="156" t="s">
+        <v>79</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" s="156" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="13">
@@ -5455,11 +5455,11 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="67"/>
+      <c r="A101" s="157"/>
       <c r="B101" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101" s="67"/>
+        <v>90</v>
+      </c>
+      <c r="C101" s="157"/>
       <c r="D101" s="13">
         <v>2</v>
       </c>
@@ -5472,13 +5472,13 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="66" t="s">
-        <v>80</v>
+      <c r="A102" s="156" t="s">
+        <v>79</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" s="156" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="13">
@@ -5493,11 +5493,11 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="67"/>
+      <c r="A103" s="157"/>
       <c r="B103" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" s="67"/>
+        <v>92</v>
+      </c>
+      <c r="C103" s="157"/>
       <c r="D103" s="13">
         <v>2</v>
       </c>
@@ -5511,10 +5511,10 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" s="32" t="s">
         <v>103</v>
-      </c>
-      <c r="B104" s="32" t="s">
-        <v>104</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>14</v>
@@ -5532,10 +5532,10 @@
     </row>
     <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="10" t="s">
         <v>14</v>
@@ -5553,10 +5553,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C106" s="10" t="s">
         <v>14</v>
@@ -5573,13 +5573,13 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="143" t="s">
+      <c r="A107" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C107" s="134" t="s">
+      <c r="C107" s="70" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="13">
@@ -5594,11 +5594,11 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="143"/>
+      <c r="A108" s="74"/>
       <c r="B108" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C108" s="130"/>
+        <v>99</v>
+      </c>
+      <c r="C108" s="71"/>
       <c r="D108" s="13">
         <v>1</v>
       </c>
@@ -5612,10 +5612,10 @@
     </row>
     <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C109" s="10" t="s">
         <v>14</v>
@@ -5633,10 +5633,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B110" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C110" s="10" t="s">
         <v>14</v>
@@ -5654,10 +5654,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B111" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C111" s="10" t="s">
         <v>14</v>
@@ -5675,13 +5675,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D112" s="13">
         <v>1</v>
@@ -5695,14 +5695,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="141" t="s">
+      <c r="A113" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="B113" s="41" t="s">
-        <v>88</v>
-      </c>
       <c r="C113" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D113" s="13">
         <v>1</v>
@@ -5716,9 +5716,9 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="142"/>
+      <c r="A114" s="73"/>
       <c r="B114" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C114" s="44" t="s">
         <v>14</v>
@@ -5736,13 +5736,13 @@
     </row>
     <row r="115" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B115" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="B115" s="55" t="s">
-        <v>110</v>
-      </c>
       <c r="C115" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D115" s="3">
         <v>3</v>
@@ -5757,13 +5757,13 @@
     </row>
     <row r="116" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="42" t="s">
+      <c r="C116" s="47" t="s">
         <v>117</v>
-      </c>
-      <c r="C116" s="47" t="s">
-        <v>118</v>
       </c>
       <c r="D116" s="30">
         <v>2</v>
@@ -5777,25 +5777,25 @@
       </c>
     </row>
     <row r="117" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="144" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117" s="144"/>
-      <c r="C117" s="144"/>
-      <c r="D117" s="144"/>
-      <c r="E117" s="146">
+      <c r="A117" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" s="64"/>
+      <c r="C117" s="64"/>
+      <c r="D117" s="64"/>
+      <c r="E117" s="68">
         <f>SUM(F55:F116)</f>
         <v>270.72300000000001</v>
       </c>
-      <c r="F117" s="146"/>
+      <c r="F117" s="68"/>
     </row>
     <row r="118" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="145"/>
-      <c r="B118" s="145"/>
-      <c r="C118" s="145"/>
-      <c r="D118" s="145"/>
-      <c r="E118" s="147"/>
-      <c r="F118" s="147"/>
+      <c r="A118" s="65"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="65"/>
+      <c r="D118" s="65"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="69"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B119" s="34"/>
@@ -5804,27 +5804,27 @@
       <c r="B120" s="34"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="B146" s="60"/>
-      <c r="C146" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="D146" s="60"/>
+      <c r="A146" s="173" t="s">
+        <v>106</v>
+      </c>
+      <c r="B146" s="173"/>
+      <c r="C146" s="173" t="s">
+        <v>114</v>
+      </c>
+      <c r="D146" s="173"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>112</v>
+      </c>
+      <c r="B147" t="s">
         <v>113</v>
       </c>
-      <c r="B147" t="s">
-        <v>114</v>
-      </c>
       <c r="C147" t="s">
+        <v>112</v>
+      </c>
+      <c r="D147" t="s">
         <v>113</v>
-      </c>
-      <c r="D147" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="B148" s="53">
         <f t="shared" ref="B148:B179" si="3">$L$60+A148*$L$54</f>
-        <v>35460</v>
+        <v>36510</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="B149" s="53">
         <f t="shared" si="3"/>
-        <v>38167.230000000003</v>
+        <v>39217.230000000003</v>
       </c>
       <c r="C149">
         <v>10</v>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="B150" s="53">
         <f t="shared" si="3"/>
-        <v>40874.46</v>
+        <v>41924.46</v>
       </c>
       <c r="C150">
         <v>20</v>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="B151" s="53">
         <f t="shared" si="3"/>
-        <v>43581.69</v>
+        <v>44631.69</v>
       </c>
       <c r="C151">
         <v>30</v>
@@ -5897,7 +5897,7 @@
       </c>
       <c r="B152" s="53">
         <f t="shared" si="3"/>
-        <v>46288.92</v>
+        <v>47338.92</v>
       </c>
       <c r="C152">
         <v>40</v>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B153" s="53">
         <f t="shared" si="3"/>
-        <v>48996.15</v>
+        <v>50046.15</v>
       </c>
       <c r="C153">
         <v>50</v>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="B154" s="53">
         <f t="shared" si="3"/>
-        <v>51703.380000000005</v>
+        <v>52753.380000000005</v>
       </c>
       <c r="C154">
         <v>60</v>
@@ -5945,7 +5945,7 @@
       </c>
       <c r="B155" s="53">
         <f t="shared" si="3"/>
-        <v>54410.61</v>
+        <v>55460.61</v>
       </c>
       <c r="C155">
         <v>70</v>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B156" s="53">
         <f t="shared" si="3"/>
-        <v>57117.84</v>
+        <v>58167.839999999997</v>
       </c>
       <c r="C156">
         <v>80</v>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="B157" s="53">
         <f t="shared" si="3"/>
-        <v>59825.07</v>
+        <v>60875.07</v>
       </c>
       <c r="C157">
         <v>90</v>
@@ -5993,7 +5993,7 @@
       </c>
       <c r="B158" s="53">
         <f t="shared" si="3"/>
-        <v>62532.3</v>
+        <v>63582.3</v>
       </c>
       <c r="C158">
         <v>100</v>
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B159" s="53">
         <f t="shared" si="3"/>
-        <v>65239.53</v>
+        <v>66289.53</v>
       </c>
       <c r="C159">
         <v>110</v>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="B160" s="53">
         <f t="shared" si="3"/>
-        <v>67946.760000000009</v>
+        <v>68996.760000000009</v>
       </c>
       <c r="C160">
         <v>120</v>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="B161" s="53">
         <f t="shared" si="3"/>
-        <v>70653.990000000005</v>
+        <v>71703.990000000005</v>
       </c>
       <c r="C161">
         <v>130</v>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B162" s="53">
         <f t="shared" si="3"/>
-        <v>73361.22</v>
+        <v>74411.22</v>
       </c>
       <c r="C162">
         <v>140</v>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="B163" s="53">
         <f t="shared" si="3"/>
-        <v>76068.450000000012</v>
+        <v>77118.450000000012</v>
       </c>
       <c r="C163">
         <v>150</v>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="B164" s="53">
         <f t="shared" si="3"/>
-        <v>78775.679999999993</v>
+        <v>79825.679999999993</v>
       </c>
       <c r="C164">
         <v>160</v>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B165" s="53">
         <f t="shared" si="3"/>
-        <v>81482.91</v>
+        <v>82532.91</v>
       </c>
       <c r="C165">
         <v>170</v>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="B166" s="53">
         <f t="shared" si="3"/>
-        <v>84190.14</v>
+        <v>85240.14</v>
       </c>
       <c r="C166">
         <v>180</v>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="B167" s="53">
         <f t="shared" si="3"/>
-        <v>86897.37</v>
+        <v>87947.37</v>
       </c>
       <c r="C167">
         <v>190</v>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B168" s="53">
         <f t="shared" si="3"/>
-        <v>89604.6</v>
+        <v>90654.6</v>
       </c>
       <c r="C168">
         <v>200</v>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="B169" s="53">
         <f t="shared" si="3"/>
-        <v>92311.83</v>
+        <v>93361.83</v>
       </c>
       <c r="C169">
         <v>210</v>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="B170" s="53">
         <f t="shared" si="3"/>
-        <v>95019.06</v>
+        <v>96069.06</v>
       </c>
       <c r="C170">
         <v>220</v>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B171" s="53">
         <f t="shared" si="3"/>
-        <v>97726.290000000008</v>
+        <v>98776.290000000008</v>
       </c>
       <c r="C171">
         <v>230</v>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="B172" s="53">
         <f t="shared" si="3"/>
-        <v>100433.52</v>
+        <v>101483.52</v>
       </c>
       <c r="C172">
         <v>240</v>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="B173" s="53">
         <f t="shared" si="3"/>
-        <v>103140.75</v>
+        <v>104190.75</v>
       </c>
       <c r="C173">
         <v>250</v>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B174" s="53">
         <f t="shared" si="3"/>
-        <v>105847.98000000001</v>
+        <v>106897.98000000001</v>
       </c>
       <c r="C174">
         <v>260</v>
@@ -6265,7 +6265,7 @@
       </c>
       <c r="B175" s="53">
         <f t="shared" si="3"/>
-        <v>108555.21</v>
+        <v>109605.21</v>
       </c>
       <c r="C175">
         <v>270</v>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="B176" s="53">
         <f t="shared" si="3"/>
-        <v>111262.44</v>
+        <v>112312.44</v>
       </c>
       <c r="C176">
         <v>280</v>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B177" s="53">
         <f t="shared" si="3"/>
-        <v>113969.67</v>
+        <v>115019.67</v>
       </c>
       <c r="C177">
         <v>290</v>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="B178" s="53">
         <f t="shared" si="3"/>
-        <v>116676.90000000001</v>
+        <v>117726.90000000001</v>
       </c>
       <c r="C178">
         <v>300</v>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="B179" s="53">
         <f t="shared" si="3"/>
-        <v>119384.13</v>
+        <v>120434.13</v>
       </c>
       <c r="C179">
         <v>310</v>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B180" s="53">
         <f t="shared" ref="B180:B211" si="5">$L$60+A180*$L$54</f>
-        <v>122091.36</v>
+        <v>123141.36</v>
       </c>
       <c r="C180">
         <v>320</v>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B181" s="53">
         <f t="shared" si="5"/>
-        <v>124798.59000000001</v>
+        <v>125848.59000000001</v>
       </c>
       <c r="C181">
         <v>330</v>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="B182" s="53">
         <f t="shared" si="5"/>
-        <v>127505.82</v>
+        <v>128555.82</v>
       </c>
       <c r="C182">
         <v>340</v>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="B183" s="53">
         <f t="shared" si="5"/>
-        <v>130213.05</v>
+        <v>131263.04999999999</v>
       </c>
       <c r="C183">
         <v>350</v>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="B184" s="53">
         <f t="shared" si="5"/>
-        <v>132920.28</v>
+        <v>133970.28</v>
       </c>
       <c r="C184">
         <v>360</v>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="B185" s="53">
         <f t="shared" si="5"/>
-        <v>135627.51</v>
+        <v>136677.51</v>
       </c>
       <c r="C185">
         <v>370</v>
@@ -6441,7 +6441,7 @@
       </c>
       <c r="B186" s="53">
         <f t="shared" si="5"/>
-        <v>138334.74</v>
+        <v>139384.74</v>
       </c>
       <c r="C186">
         <v>380</v>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="B187" s="53">
         <f t="shared" si="5"/>
-        <v>141041.97</v>
+        <v>142091.97</v>
       </c>
       <c r="C187">
         <v>390</v>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="B188" s="53">
         <f t="shared" si="5"/>
-        <v>143749.20000000001</v>
+        <v>144799.20000000001</v>
       </c>
       <c r="C188">
         <v>400</v>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B189" s="53">
         <f t="shared" si="5"/>
-        <v>146456.43</v>
+        <v>147506.43</v>
       </c>
       <c r="C189">
         <v>410</v>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="B190" s="53">
         <f t="shared" si="5"/>
-        <v>149163.66</v>
+        <v>150213.66</v>
       </c>
       <c r="C190">
         <v>420</v>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="B191" s="53">
         <f t="shared" si="5"/>
-        <v>151870.89000000001</v>
+        <v>152920.89000000001</v>
       </c>
       <c r="C191">
         <v>430</v>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B192" s="53">
         <f t="shared" si="5"/>
-        <v>154578.12</v>
+        <v>155628.12</v>
       </c>
       <c r="C192">
         <v>440</v>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="B193" s="53">
         <f t="shared" si="5"/>
-        <v>157285.35</v>
+        <v>158335.35</v>
       </c>
       <c r="C193">
         <v>450</v>
@@ -6569,7 +6569,7 @@
       </c>
       <c r="B194" s="53">
         <f t="shared" si="5"/>
-        <v>159992.58000000002</v>
+        <v>161042.58000000002</v>
       </c>
       <c r="C194">
         <v>460</v>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B195" s="53">
         <f t="shared" si="5"/>
-        <v>162699.81</v>
+        <v>163749.81</v>
       </c>
       <c r="C195">
         <v>470</v>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B196" s="53">
         <f t="shared" si="5"/>
-        <v>165407.04000000001</v>
+        <v>166457.04</v>
       </c>
       <c r="C196">
         <v>480</v>
@@ -6617,7 +6617,7 @@
       </c>
       <c r="B197" s="53">
         <f t="shared" si="5"/>
-        <v>168114.27000000002</v>
+        <v>169164.27000000002</v>
       </c>
       <c r="C197">
         <v>490</v>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="B198" s="53">
         <f t="shared" si="5"/>
-        <v>170821.5</v>
+        <v>171871.5</v>
       </c>
       <c r="C198">
         <v>500</v>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="B199" s="53">
         <f t="shared" si="5"/>
-        <v>173528.73</v>
+        <v>174578.73</v>
       </c>
       <c r="C199">
         <v>510</v>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="B200" s="53">
         <f t="shared" si="5"/>
-        <v>176235.96000000002</v>
+        <v>177285.96000000002</v>
       </c>
       <c r="C200">
         <v>520</v>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B201" s="53">
         <f t="shared" si="5"/>
-        <v>178943.19</v>
+        <v>179993.19</v>
       </c>
       <c r="C201">
         <v>530</v>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="B202" s="53">
         <f t="shared" si="5"/>
-        <v>181650.42</v>
+        <v>182700.42</v>
       </c>
       <c r="C202">
         <v>540</v>
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B203" s="53">
         <f t="shared" si="5"/>
-        <v>184357.65</v>
+        <v>185407.65</v>
       </c>
       <c r="C203">
         <v>550</v>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="B204" s="53">
         <f t="shared" si="5"/>
-        <v>187064.88</v>
+        <v>188114.88</v>
       </c>
       <c r="C204">
         <v>560</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="B205" s="53">
         <f t="shared" si="5"/>
-        <v>189772.11000000002</v>
+        <v>190822.11000000002</v>
       </c>
       <c r="C205">
         <v>570</v>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="B206" s="53">
         <f t="shared" si="5"/>
-        <v>192479.34</v>
+        <v>193529.34</v>
       </c>
       <c r="C206">
         <v>580</v>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B207" s="53">
         <f t="shared" si="5"/>
-        <v>195186.57</v>
+        <v>196236.57</v>
       </c>
       <c r="C207">
         <v>590</v>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="B208" s="53">
         <f t="shared" si="5"/>
-        <v>197893.80000000002</v>
+        <v>198943.80000000002</v>
       </c>
       <c r="C208">
         <v>600</v>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="B209" s="53">
         <f t="shared" si="5"/>
-        <v>200601.03</v>
+        <v>201651.03</v>
       </c>
       <c r="C209">
         <v>610</v>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="B210" s="53">
         <f t="shared" si="5"/>
-        <v>203308.26</v>
+        <v>204358.26</v>
       </c>
       <c r="C210">
         <v>620</v>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B211" s="53">
         <f t="shared" si="5"/>
-        <v>206015.49000000002</v>
+        <v>207065.49000000002</v>
       </c>
       <c r="C211">
         <v>630</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="B212" s="53">
         <f t="shared" ref="B212:B243" si="7">$L$60+A212*$L$54</f>
-        <v>208722.72</v>
+        <v>209772.72</v>
       </c>
       <c r="C212">
         <v>640</v>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="B213" s="53">
         <f t="shared" si="7"/>
-        <v>211429.95</v>
+        <v>212479.95</v>
       </c>
       <c r="C213">
         <v>650</v>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="B214" s="53">
         <f t="shared" si="7"/>
-        <v>214137.18000000002</v>
+        <v>215187.18000000002</v>
       </c>
       <c r="C214">
         <v>660</v>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="B215" s="53">
         <f t="shared" si="7"/>
-        <v>216844.41</v>
+        <v>217894.41</v>
       </c>
       <c r="C215">
         <v>670</v>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B216" s="53">
         <f t="shared" si="7"/>
-        <v>219551.64</v>
+        <v>220601.64</v>
       </c>
       <c r="C216">
         <v>680</v>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="B217" s="53">
         <f t="shared" si="7"/>
-        <v>222258.87</v>
+        <v>223308.87</v>
       </c>
       <c r="C217">
         <v>690</v>
@@ -6953,7 +6953,7 @@
       </c>
       <c r="B218" s="53">
         <f t="shared" si="7"/>
-        <v>224966.1</v>
+        <v>226016.1</v>
       </c>
       <c r="C218">
         <v>700</v>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B219" s="53">
         <f t="shared" si="7"/>
-        <v>227673.33000000002</v>
+        <v>228723.33000000002</v>
       </c>
       <c r="C219">
         <v>710</v>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="B220" s="53">
         <f t="shared" si="7"/>
-        <v>230380.56</v>
+        <v>231430.56</v>
       </c>
       <c r="C220">
         <v>720</v>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="B221" s="53">
         <f t="shared" si="7"/>
-        <v>233087.79</v>
+        <v>234137.79</v>
       </c>
       <c r="C221">
         <v>730</v>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B222" s="53">
         <f t="shared" si="7"/>
-        <v>235795.02000000002</v>
+        <v>236845.02000000002</v>
       </c>
       <c r="C222">
         <v>740</v>
@@ -7033,7 +7033,7 @@
       </c>
       <c r="B223" s="53">
         <f t="shared" si="7"/>
-        <v>238502.25</v>
+        <v>239552.25</v>
       </c>
       <c r="C223">
         <v>750</v>
@@ -7049,7 +7049,7 @@
       </c>
       <c r="B224" s="53">
         <f t="shared" si="7"/>
-        <v>241209.48</v>
+        <v>242259.48</v>
       </c>
       <c r="C224">
         <v>760</v>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B225" s="53">
         <f t="shared" si="7"/>
-        <v>243916.71000000002</v>
+        <v>244966.71000000002</v>
       </c>
       <c r="C225">
         <v>770</v>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="B226" s="53">
         <f t="shared" si="7"/>
-        <v>246623.94</v>
+        <v>247673.94</v>
       </c>
       <c r="C226">
         <v>780</v>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="B227" s="53">
         <f t="shared" si="7"/>
-        <v>249331.17</v>
+        <v>250381.17</v>
       </c>
       <c r="C227">
         <v>790</v>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B228" s="53">
         <f t="shared" si="7"/>
-        <v>252038.40000000002</v>
+        <v>253088.40000000002</v>
       </c>
       <c r="C228">
         <v>800</v>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="B229" s="53">
         <f t="shared" si="7"/>
-        <v>254745.63</v>
+        <v>255795.63</v>
       </c>
       <c r="C229">
         <v>810</v>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="B230" s="53">
         <f t="shared" si="7"/>
-        <v>257452.86000000002</v>
+        <v>258502.86000000002</v>
       </c>
       <c r="C230">
         <v>820</v>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B231" s="53">
         <f t="shared" si="7"/>
-        <v>260160.09</v>
+        <v>261210.09</v>
       </c>
       <c r="C231">
         <v>830</v>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="B232" s="53">
         <f t="shared" si="7"/>
-        <v>262867.32</v>
+        <v>263917.32</v>
       </c>
       <c r="C232">
         <v>840</v>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="B233" s="53">
         <f t="shared" si="7"/>
-        <v>265574.55000000005</v>
+        <v>266624.55000000005</v>
       </c>
       <c r="C233">
         <v>850</v>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="B234" s="53">
         <f t="shared" si="7"/>
-        <v>268281.78000000003</v>
+        <v>269331.78000000003</v>
       </c>
       <c r="C234">
         <v>860</v>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="B235" s="53">
         <f t="shared" si="7"/>
-        <v>270989.01</v>
+        <v>272039.01</v>
       </c>
       <c r="C235">
         <v>870</v>
@@ -7241,7 +7241,7 @@
       </c>
       <c r="B236" s="53">
         <f t="shared" si="7"/>
-        <v>273696.24</v>
+        <v>274746.23999999999</v>
       </c>
       <c r="C236">
         <v>880</v>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B237" s="53">
         <f t="shared" si="7"/>
-        <v>276403.46999999997</v>
+        <v>277453.46999999997</v>
       </c>
       <c r="C237">
         <v>890</v>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="B238" s="53">
         <f t="shared" si="7"/>
-        <v>279110.7</v>
+        <v>280160.7</v>
       </c>
       <c r="C238">
         <v>900</v>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="B239" s="53">
         <f t="shared" si="7"/>
-        <v>281817.93000000005</v>
+        <v>282867.93000000005</v>
       </c>
       <c r="C239">
         <v>910</v>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B240" s="53">
         <f t="shared" si="7"/>
-        <v>284525.16000000003</v>
+        <v>285575.16000000003</v>
       </c>
       <c r="C240">
         <v>920</v>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="B241" s="53">
         <f t="shared" si="7"/>
-        <v>287232.39</v>
+        <v>288282.39</v>
       </c>
       <c r="C241">
         <v>930</v>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="B242" s="53">
         <f t="shared" si="7"/>
-        <v>289939.62</v>
+        <v>290989.62</v>
       </c>
       <c r="C242">
         <v>940</v>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="B243" s="53">
         <f t="shared" si="7"/>
-        <v>292646.84999999998</v>
+        <v>293696.84999999998</v>
       </c>
       <c r="C243">
         <v>950</v>
@@ -7368,14 +7368,14 @@
         <v>960</v>
       </c>
       <c r="B244" s="53">
-        <f t="shared" ref="B244:B275" si="9">$L$60+A244*$L$54</f>
-        <v>295354.08</v>
+        <f t="shared" ref="B244:B248" si="9">$L$60+A244*$L$54</f>
+        <v>296404.08</v>
       </c>
       <c r="C244">
         <v>960</v>
       </c>
       <c r="D244" s="53">
-        <f t="shared" ref="D244:D275" si="10">C244*$L$56</f>
+        <f t="shared" ref="D244:D248" si="10">C244*$L$56</f>
         <v>311872.89600000001</v>
       </c>
     </row>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="B245" s="53">
         <f t="shared" si="9"/>
-        <v>298061.31</v>
+        <v>299111.31</v>
       </c>
       <c r="C245">
         <v>970</v>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B246" s="53">
         <f t="shared" si="9"/>
-        <v>300768.54000000004</v>
+        <v>301818.54000000004</v>
       </c>
       <c r="C246">
         <v>980</v>
@@ -7417,7 +7417,7 @@
       </c>
       <c r="B247" s="53">
         <f t="shared" si="9"/>
-        <v>303475.77</v>
+        <v>304525.77</v>
       </c>
       <c r="C247">
         <v>990</v>
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B248" s="53">
         <f t="shared" si="9"/>
-        <v>306183</v>
+        <v>307233</v>
       </c>
       <c r="C248">
         <v>1000</v>
@@ -7445,16 +7445,76 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="L56:M57"/>
-    <mergeCell ref="G62:K63"/>
-    <mergeCell ref="L62:M63"/>
-    <mergeCell ref="E117:F118"/>
-    <mergeCell ref="G56:K57"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="A117:D118"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="G59:M59"/>
+    <mergeCell ref="G60:K60"/>
+    <mergeCell ref="G61:K61"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A55:A69"/>
+    <mergeCell ref="C55:C69"/>
+    <mergeCell ref="E55:E69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A78"/>
+    <mergeCell ref="C72:C78"/>
+    <mergeCell ref="E72:E78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="C79:C83"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:J3"/>
@@ -7471,76 +7531,16 @@
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A55:A69"/>
-    <mergeCell ref="C55:C69"/>
-    <mergeCell ref="E55:E69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="E72:E78"/>
-    <mergeCell ref="A79:A83"/>
-    <mergeCell ref="C79:C83"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G54:K54"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="G59:M59"/>
-    <mergeCell ref="G60:K60"/>
-    <mergeCell ref="G61:K61"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A117:D118"/>
+    <mergeCell ref="L56:M57"/>
+    <mergeCell ref="G62:K63"/>
+    <mergeCell ref="L62:M63"/>
+    <mergeCell ref="E117:F118"/>
+    <mergeCell ref="G56:K57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
